--- a/raw_data/DAI-USD_4h_process.xlsx
+++ b/raw_data/DAI-USD_4h_process.xlsx
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1.000286221504211</v>
+        <v>1.000723719596863</v>
       </c>
       <c r="C2">
-        <v>1.001249194145203</v>
+        <v>1.001071333885193</v>
       </c>
       <c r="D2">
-        <v>0.9998496174812316</v>
+        <v>0.9974846839904784</v>
       </c>
       <c r="E2">
-        <v>1.000253438949585</v>
+        <v>0.9985854029655457</v>
       </c>
       <c r="F2">
-        <v>4337360</v>
+        <v>9440736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1.000069975852966</v>
+        <v>0.9988482594490052</v>
       </c>
       <c r="C3">
-        <v>1.001126527786255</v>
+        <v>1.000589966773987</v>
       </c>
       <c r="D3">
-        <v>0.9997173547744752</v>
+        <v>0.998269498348236</v>
       </c>
       <c r="E3">
-        <v>1.000228762626648</v>
+        <v>0.999774694442749</v>
       </c>
       <c r="F3">
-        <v>24930496</v>
+        <v>2182400</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.000235795974731</v>
+        <v>0.999696671962738</v>
       </c>
       <c r="C4">
-        <v>1.000747799873352</v>
+        <v>1.000554919242859</v>
       </c>
       <c r="D4">
-        <v>0.9980313777923584</v>
+        <v>0.9981645941734314</v>
       </c>
       <c r="E4">
-        <v>0.999546229839325</v>
+        <v>0.999803900718689</v>
       </c>
       <c r="F4">
-        <v>14941280</v>
+        <v>11913120</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.9996185302734376</v>
+        <v>0.9999167323112488</v>
       </c>
       <c r="C5">
-        <v>1.000592827796936</v>
+        <v>1.000641584396362</v>
       </c>
       <c r="D5">
-        <v>0.998901665210724</v>
+        <v>0.998744785785675</v>
       </c>
       <c r="E5">
-        <v>1.000260591506958</v>
+        <v>0.999190628528595</v>
       </c>
       <c r="F5">
-        <v>13825088</v>
+        <v>8327904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.000291109085083</v>
+        <v>0.9992160201072692</v>
       </c>
       <c r="C6">
-        <v>1.00036895275116</v>
+        <v>1.000664830207825</v>
       </c>
       <c r="D6">
-        <v>0.9977045059204102</v>
+        <v>0.9985621571540833</v>
       </c>
       <c r="E6">
-        <v>0.9993019104003906</v>
+        <v>1.000316381454468</v>
       </c>
       <c r="F6">
-        <v>1336416</v>
+        <v>6213600</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.9993614554405212</v>
+        <v>1.000259399414062</v>
       </c>
       <c r="C7">
-        <v>1.000605821609497</v>
+        <v>1.001217007637024</v>
       </c>
       <c r="D7">
-        <v>0.9988719820976256</v>
+        <v>0.9996368288993835</v>
       </c>
       <c r="E7">
-        <v>1.000030040740967</v>
+        <v>1.000674605369568</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1387616</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.9999975562095642</v>
+        <v>1.000699639320374</v>
       </c>
       <c r="C8">
-        <v>1.000612497329712</v>
+        <v>1.001445889472961</v>
       </c>
       <c r="D8">
-        <v>0.998144805431366</v>
+        <v>0.9996194243431092</v>
       </c>
       <c r="E8">
-        <v>0.9996902942657472</v>
+        <v>0.9998495578765868</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5784096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.9998114705085754</v>
+        <v>0.9999681711196901</v>
       </c>
       <c r="C9">
-        <v>1.000834226608276</v>
+        <v>1.000977396965027</v>
       </c>
       <c r="D9">
-        <v>0.998685896396637</v>
+        <v>0.9993156790733336</v>
       </c>
       <c r="E9">
-        <v>1.000226378440857</v>
+        <v>1.000004887580872</v>
       </c>
       <c r="F9">
-        <v>3307616</v>
+        <v>3705504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1.000228047370911</v>
+        <v>0.9998447895050048</v>
       </c>
       <c r="C10">
-        <v>1.000517845153809</v>
+        <v>1.000651597976685</v>
       </c>
       <c r="D10">
-        <v>0.99849134683609</v>
+        <v>0.9986199736595154</v>
       </c>
       <c r="E10">
-        <v>0.99849134683609</v>
+        <v>0.9992833137512208</v>
       </c>
       <c r="F10">
-        <v>3245952</v>
+        <v>22190624</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.9986709952354432</v>
+        <v>0.9992696046829224</v>
       </c>
       <c r="C11">
-        <v>1.000777959823608</v>
+        <v>1.000365138053894</v>
       </c>
       <c r="D11">
-        <v>0.9986342191696168</v>
+        <v>0.9989154934883118</v>
       </c>
       <c r="E11">
-        <v>1.000593781471252</v>
+        <v>0.9996486306190492</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6451712</v>
       </c>
       <c r="L11">
-        <v>55.97176868550062</v>
+        <v>54.33677554529654</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.000667214393616</v>
+        <v>0.999672532081604</v>
       </c>
       <c r="C12">
-        <v>1.000738024711609</v>
+        <v>1.000573039054871</v>
       </c>
       <c r="D12">
-        <v>0.9976512789726256</v>
+        <v>0.99830824136734</v>
       </c>
       <c r="E12">
-        <v>0.9982057809829712</v>
+        <v>0.9993923902511596</v>
       </c>
       <c r="F12">
-        <v>2136800</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>38.57045371937367</v>
+        <v>50.01499341184496</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.9984822869300842</v>
+        <v>0.9994248151779176</v>
       </c>
       <c r="C13">
-        <v>1.000678062438965</v>
+        <v>1.000542521476746</v>
       </c>
       <c r="D13">
-        <v>0.9980214834213256</v>
+        <v>0.9987229108810424</v>
       </c>
       <c r="E13">
-        <v>1.000210881233215</v>
+        <v>0.99906188249588</v>
       </c>
       <c r="F13">
-        <v>2833680</v>
+        <v>9633984</v>
       </c>
       <c r="L13">
-        <v>52.51547887820302</v>
+        <v>44.83987781439488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1.000121831893921</v>
+        <v>0.9991487860679626</v>
       </c>
       <c r="C14">
-        <v>1.000786781311035</v>
+        <v>1.000635743141174</v>
       </c>
       <c r="D14">
-        <v>0.9979040622711182</v>
+        <v>0.9982340931892396</v>
       </c>
       <c r="E14">
-        <v>1.000565528869629</v>
+        <v>0.999971330165863</v>
       </c>
       <c r="F14">
-        <v>5224848</v>
+        <v>8091072</v>
       </c>
       <c r="L14">
-        <v>54.56768221309186</v>
+        <v>58.22179174244225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1.00040853023529</v>
+        <v>1.000060319900513</v>
       </c>
       <c r="C15">
-        <v>1.000523924827576</v>
+        <v>1.001352310180664</v>
       </c>
       <c r="D15">
-        <v>0.9990390539169312</v>
+        <v>0.9993438720703124</v>
       </c>
       <c r="E15">
-        <v>1.000242114067078</v>
+        <v>1.000432968139648</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2494624</v>
       </c>
       <c r="L15">
-        <v>52.2509396500129</v>
+        <v>63.30539412016073</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>1.000122427940369</v>
+        <v>1.00032651424408</v>
       </c>
       <c r="C16">
-        <v>1.000799059867859</v>
+        <v>1.000379323959351</v>
       </c>
       <c r="D16">
-        <v>0.9992761611938475</v>
+        <v>0.9993531703948976</v>
       </c>
       <c r="E16">
-        <v>0.9994232058525084</v>
+        <v>0.9998086094856262</v>
       </c>
       <c r="F16">
-        <v>4725216</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>46.61350075840861</v>
+        <v>53.41583526201795</v>
       </c>
       <c r="M16">
-        <v>46.94055595170119</v>
+        <v>54.7296556666782</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1335,25 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.999423086643219</v>
+        <v>0.999799370765686</v>
       </c>
       <c r="C17">
-        <v>1.00029468536377</v>
+        <v>1.00021493434906</v>
       </c>
       <c r="D17">
-        <v>0.9982553124427797</v>
+        <v>0.9980942606925964</v>
       </c>
       <c r="E17">
-        <v>0.9999158382415771</v>
+        <v>1.000056385993958</v>
       </c>
       <c r="F17">
-        <v>8288464</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>50.24639342457775</v>
+        <v>56.45303013933531</v>
       </c>
       <c r="M17">
-        <v>49.80023143536781</v>
+        <v>57.01746949586582</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1361,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.999871790409088</v>
+        <v>1.000200629234314</v>
       </c>
       <c r="C18">
-        <v>1.000558495521545</v>
+        <v>1.000680565834045</v>
       </c>
       <c r="D18">
-        <v>0.998934805393219</v>
+        <v>0.9995223879814148</v>
       </c>
       <c r="E18">
-        <v>1.00042712688446</v>
+        <v>0.9999186396598816</v>
       </c>
       <c r="F18">
-        <v>2002448</v>
+        <v>176928</v>
       </c>
       <c r="L18">
-        <v>53.90855228192853</v>
+        <v>54.24127679261196</v>
       </c>
       <c r="M18">
-        <v>52.65242914599836</v>
+        <v>55.34301143490227</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1387,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>1.000468611717224</v>
+        <v>0.9999845623970032</v>
       </c>
       <c r="C19">
-        <v>1.000748157501221</v>
+        <v>1.000768303871155</v>
       </c>
       <c r="D19">
-        <v>0.9991188049316406</v>
+        <v>0.9992633461952209</v>
       </c>
       <c r="E19">
-        <v>0.9993579983711244</v>
+        <v>1.000540733337402</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>45.95186885656172</v>
+        <v>61.83774500439863</v>
       </c>
       <c r="M19">
-        <v>46.67992437417218</v>
+        <v>60.92428927877453</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1413,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.9993944764137268</v>
+        <v>1.000443935394287</v>
       </c>
       <c r="C20">
-        <v>1.000079393386841</v>
+        <v>1.000625371932983</v>
       </c>
       <c r="D20">
-        <v>0.9989303946495056</v>
+        <v>0.9989084005355836</v>
       </c>
       <c r="E20">
-        <v>0.9994288086891174</v>
+        <v>0.9995567798614502</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>46.53979689109443</v>
+        <v>47.73644381865543</v>
       </c>
       <c r="M20">
-        <v>47.10786205706056</v>
+        <v>50.23083397463467</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1439,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.9992202520370485</v>
+        <v>0.999628484249115</v>
       </c>
       <c r="C21">
-        <v>1.000275135040283</v>
+        <v>0.9998711943626404</v>
       </c>
       <c r="D21">
-        <v>0.9988477826118468</v>
+        <v>0.9980654120445251</v>
       </c>
       <c r="E21">
-        <v>0.999745547771454</v>
+        <v>0.9997645020484924</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>709888</v>
       </c>
       <c r="H21">
-        <v>0.9998072803020477</v>
+        <v>0.9997818112373352</v>
       </c>
       <c r="L21">
-        <v>49.31430819248184</v>
+        <v>50.42153750718865</v>
       </c>
       <c r="M21">
-        <v>49.07663948976583</v>
+        <v>52.14063247323644</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1468,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.999753475189209</v>
+        <v>0.999914526939392</v>
       </c>
       <c r="C22">
-        <v>1.00051748752594</v>
+        <v>1.000690340995789</v>
       </c>
       <c r="D22">
-        <v>0.9992217421531676</v>
+        <v>0.999292016029358</v>
       </c>
       <c r="E22">
-        <v>0.999820351600647</v>
+        <v>0.9997071027755736</v>
       </c>
       <c r="F22">
-        <v>890864</v>
+        <v>1133168</v>
       </c>
       <c r="G22">
-        <v>0.9998079027448382</v>
+        <v>0.9997782536915371</v>
       </c>
       <c r="H22">
-        <v>0.9997856259346009</v>
+        <v>0.9998378962278366</v>
       </c>
       <c r="L22">
-        <v>50.00370366268384</v>
+        <v>49.62890620842597</v>
       </c>
       <c r="M22">
-        <v>49.5542097668471</v>
+        <v>51.55195085242038</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1500,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.9998219013214112</v>
+        <v>0.999595046043396</v>
       </c>
       <c r="C23">
-        <v>1.000585436820984</v>
+        <v>1.000335931777954</v>
       </c>
       <c r="D23">
-        <v>0.9993059635162354</v>
+        <v>0.9993589520454408</v>
       </c>
       <c r="E23">
-        <v>0.999451220035553</v>
+        <v>0.9999210238456726</v>
       </c>
       <c r="F23">
-        <v>16983536</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9997754770439941</v>
+        <v>0.9997912327964584</v>
       </c>
       <c r="H23">
-        <v>0.9997467488050461</v>
+        <v>0.9998452126979828</v>
       </c>
       <c r="L23">
-        <v>46.49310280814124</v>
+        <v>52.743600694844</v>
       </c>
       <c r="M23">
-        <v>47.20175945716304</v>
+        <v>53.65217383219653</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1532,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.9993744492530824</v>
+        <v>1.000054717063904</v>
       </c>
       <c r="C24">
-        <v>1.00013792514801</v>
+        <v>1.000282406806946</v>
       </c>
       <c r="D24">
-        <v>0.998931646347046</v>
+        <v>0.9985925555229188</v>
       </c>
       <c r="E24">
-        <v>0.999253511428833</v>
+        <v>0.9998542070388794</v>
       </c>
       <c r="F24">
-        <v>4775216</v>
+        <v>1824208</v>
       </c>
       <c r="G24">
-        <v>0.9997280256244339</v>
+        <v>0.9997969577275876</v>
       </c>
       <c r="H24">
-        <v>0.9997321128845215</v>
+        <v>0.9998477280139924</v>
       </c>
       <c r="L24">
-        <v>44.60610874316087</v>
+        <v>51.62196131074551</v>
       </c>
       <c r="M24">
-        <v>45.94371753957156</v>
+        <v>52.88108168602298</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1564,31 +1564,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.9993814826011658</v>
+        <v>0.9997973442077636</v>
       </c>
       <c r="C25">
-        <v>1.000295639038086</v>
+        <v>1.000465512275696</v>
       </c>
       <c r="D25">
-        <v>0.9989827871322632</v>
+        <v>0.998597264289856</v>
       </c>
       <c r="E25">
-        <v>0.999135434627533</v>
+        <v>0.9995080828666688</v>
       </c>
       <c r="F25">
-        <v>6291440</v>
+        <v>787184</v>
       </c>
       <c r="G25">
-        <v>0.9996741537156246</v>
+        <v>0.9997706963765949</v>
       </c>
       <c r="H25">
-        <v>0.9996758550405502</v>
+        <v>0.999863600730896</v>
       </c>
       <c r="L25">
-        <v>43.4220218560631</v>
+        <v>45.92980505520469</v>
       </c>
       <c r="M25">
-        <v>45.16942482604663</v>
+        <v>48.9559407594595</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1596,31 +1596,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.9992018342018129</v>
+        <v>0.9993789792060852</v>
       </c>
       <c r="C26">
-        <v>0.9997900724411012</v>
+        <v>1.000532746315002</v>
       </c>
       <c r="D26">
-        <v>0.9984437823295592</v>
+        <v>0.9985665678977966</v>
       </c>
       <c r="E26">
-        <v>0.9993328452110291</v>
+        <v>1.000391721725464</v>
       </c>
       <c r="F26">
-        <v>25512240</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.9996431256697522</v>
+        <v>0.9998271532264921</v>
       </c>
       <c r="H26">
-        <v>0.9996774017810821</v>
+        <v>0.9998673677444458</v>
       </c>
       <c r="L26">
-        <v>46.11253643746186</v>
+        <v>58.93483332869776</v>
       </c>
       <c r="M26">
-        <v>46.78419316730447</v>
+        <v>57.60712157239957</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1628,31 +1628,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.9994881153106689</v>
+        <v>1.000357270240784</v>
       </c>
       <c r="C27">
-        <v>1.000335693359375</v>
+        <v>1.000485420227051</v>
       </c>
       <c r="D27">
-        <v>0.9984973073005676</v>
+        <v>0.9978544116020204</v>
       </c>
       <c r="E27">
-        <v>0.9991981387138368</v>
+        <v>0.9996047019958496</v>
       </c>
       <c r="F27">
-        <v>10617392</v>
+        <v>5238096</v>
       </c>
       <c r="G27">
-        <v>0.9996026723101236</v>
+        <v>0.9998069303873427</v>
       </c>
       <c r="H27">
-        <v>0.9996358066797256</v>
+        <v>0.9998138725757599</v>
       </c>
       <c r="L27">
-        <v>44.48846192282099</v>
+        <v>47.48980041896273</v>
       </c>
       <c r="M27">
-        <v>45.79315409676436</v>
+        <v>49.55176434541832</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1660,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.9992129802703856</v>
+        <v>0.9995331168174744</v>
       </c>
       <c r="C28">
-        <v>1.000655055046082</v>
+        <v>1.000077724456787</v>
       </c>
       <c r="D28">
-        <v>0.9984363317489624</v>
+        <v>0.9972613453865052</v>
       </c>
       <c r="E28">
-        <v>1.000028967857361</v>
+        <v>0.9996426701545716</v>
       </c>
       <c r="F28">
-        <v>2865504</v>
+        <v>8122704</v>
       </c>
       <c r="G28">
-        <v>0.9996414264507815</v>
+        <v>0.9997919976389089</v>
       </c>
       <c r="H28">
-        <v>0.9996527403593063</v>
+        <v>0.9998035281896591</v>
       </c>
       <c r="L28">
-        <v>55.39014299182347</v>
+        <v>48.03747386071229</v>
       </c>
       <c r="M28">
-        <v>52.47938738373207</v>
+        <v>49.91562033478243</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1692,31 +1692,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.9999737739562988</v>
+        <v>0.9999144673347472</v>
       </c>
       <c r="C29">
-        <v>1.00068736076355</v>
+        <v>1.00086510181427</v>
       </c>
       <c r="D29">
-        <v>0.9995978474617004</v>
+        <v>0.999317228794098</v>
       </c>
       <c r="E29">
-        <v>1.000187516212463</v>
+        <v>1.000149726867676</v>
       </c>
       <c r="F29">
-        <v>2495264</v>
+        <v>4762720</v>
       </c>
       <c r="G29">
-        <v>0.9996910709745708</v>
+        <v>0.9998245184778877</v>
       </c>
       <c r="H29">
-        <v>0.9996507972478866</v>
+        <v>0.9998107701539993</v>
       </c>
       <c r="L29">
-        <v>57.19485825902513</v>
+        <v>55.07689995279579</v>
       </c>
       <c r="M29">
-        <v>53.65421021165864</v>
+        <v>54.62262470809539</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1724,31 +1724,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>1.000103116035461</v>
+        <v>1.000039219856262</v>
       </c>
       <c r="C30">
-        <v>1.000695109367371</v>
+        <v>1.000904321670532</v>
       </c>
       <c r="D30">
-        <v>0.9992225766181946</v>
+        <v>0.9988871216773988</v>
       </c>
       <c r="E30">
-        <v>1.000262141227722</v>
+        <v>1.000704646110535</v>
       </c>
       <c r="F30">
-        <v>9952128</v>
+        <v>3934240</v>
       </c>
       <c r="G30">
-        <v>0.99974298645213</v>
+        <v>0.9999045300808556</v>
       </c>
       <c r="H30">
-        <v>0.9997393369674683</v>
+        <v>0.9998818367719651</v>
       </c>
       <c r="L30">
-        <v>58.09258456846789</v>
+        <v>61.49859079738746</v>
       </c>
       <c r="M30">
-        <v>54.22779751839615</v>
+        <v>59.14761498716771</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1756,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>1.000299215316772</v>
+        <v>1.000704407691956</v>
       </c>
       <c r="C31">
-        <v>1.000939130783081</v>
+        <v>1.001767992973328</v>
       </c>
       <c r="D31">
-        <v>0.9997819662094116</v>
+        <v>0.9995156526565552</v>
       </c>
       <c r="E31">
-        <v>1.000573039054871</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="F31">
-        <v>7342928</v>
+        <v>9189664</v>
       </c>
       <c r="G31">
-        <v>0.9998184457796518</v>
+        <v>0.9999020143284045</v>
       </c>
       <c r="H31">
-        <v>0.9997382998466492</v>
+        <v>0.9998932480812073</v>
       </c>
       <c r="I31">
-        <v>0.9997796257336934</v>
+        <v>0.9998332321643829</v>
       </c>
       <c r="L31">
-        <v>61.84322515826835</v>
+        <v>49.59981500138677</v>
       </c>
       <c r="M31">
-        <v>56.63570329720147</v>
+        <v>50.98068787043471</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1791,597 +1791,594 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>1.000612854957581</v>
+        <v>0.9999827146530152</v>
       </c>
       <c r="C32">
-        <v>1.00132405757904</v>
+        <v>1.001966595649719</v>
       </c>
       <c r="D32">
-        <v>0.9994044303894044</v>
+        <v>0.9995591640472412</v>
       </c>
       <c r="E32">
-        <v>1.000457882881165</v>
+        <v>1.000999808311462</v>
       </c>
       <c r="F32">
-        <v>8167120</v>
+        <v>21168000</v>
       </c>
       <c r="G32">
-        <v>0.9998765764252439</v>
+        <v>1.00000181378141</v>
       </c>
       <c r="H32">
-        <v>0.9998509049415588</v>
+        <v>0.9999736189842224</v>
       </c>
       <c r="I32">
-        <v>0.9997864405314127</v>
+        <v>0.9999137123425802</v>
       </c>
       <c r="L32">
-        <v>59.61977713250268</v>
+        <v>61.08928593756472</v>
       </c>
       <c r="M32">
-        <v>55.47167593689008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>59.20901436628615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1.000638365745544</v>
+        <v>1.001153469085693</v>
       </c>
       <c r="C33">
-        <v>1.001515865325928</v>
+        <v>1.001153469085693</v>
       </c>
       <c r="D33">
-        <v>0.9999385476112366</v>
+        <v>0.9991033673286438</v>
       </c>
       <c r="E33">
-        <v>1.000749468803406</v>
+        <v>0.9998815655708312</v>
       </c>
       <c r="F33">
-        <v>22994736</v>
+        <v>5517904</v>
       </c>
       <c r="G33">
-        <v>0.9999559302778039</v>
+        <v>0.9999908821259026</v>
       </c>
       <c r="H33">
-        <v>0.9998778343200684</v>
+        <v>1.00001460313797</v>
       </c>
       <c r="I33">
-        <v>0.9998037974039714</v>
+        <v>0.9999172747135162</v>
       </c>
       <c r="L33">
-        <v>63.37114805190716</v>
+        <v>48.66179095482275</v>
       </c>
       <c r="M33">
-        <v>57.83482340454071</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>50.17657446624862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>1.000695943832398</v>
+        <v>0.9996655583381652</v>
       </c>
       <c r="C34">
-        <v>1.000893115997314</v>
+        <v>1.00041925907135</v>
       </c>
       <c r="D34">
-        <v>0.9994773268699646</v>
+        <v>0.998388171195984</v>
       </c>
       <c r="E34">
-        <v>1.00015664100647</v>
+        <v>0.999700665473938</v>
       </c>
       <c r="F34">
-        <v>5313776</v>
+        <v>16576</v>
       </c>
       <c r="G34">
-        <v>0.9999741767076826</v>
+        <v>0.9999644987939058</v>
       </c>
       <c r="H34">
-        <v>0.9998573899269104</v>
+        <v>1.000001069903374</v>
       </c>
       <c r="I34">
-        <v>0.9998241444428762</v>
+        <v>0.9999138335386912</v>
       </c>
       <c r="L34">
-        <v>52.26535177395653</v>
+        <v>46.92449661572231</v>
       </c>
       <c r="M34">
-        <v>51.81409444759459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>48.87755949226516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>1.000278830528259</v>
+        <v>0.9996406435966492</v>
       </c>
       <c r="C35">
-        <v>1.001141786575317</v>
+        <v>1.000614643096924</v>
       </c>
       <c r="D35">
-        <v>0.9987604022026062</v>
+        <v>0.999117910861969</v>
       </c>
       <c r="E35">
-        <v>0.9999234080314636</v>
+        <v>0.9998400211334229</v>
       </c>
       <c r="F35">
-        <v>23116560</v>
+        <v>2216128</v>
       </c>
       <c r="G35">
-        <v>0.9999695613734809</v>
+        <v>0.9999531826429529</v>
       </c>
       <c r="H35">
-        <v>0.9998414546251297</v>
+        <v>0.9999714225530625</v>
       </c>
       <c r="I35">
-        <v>0.999812904993693</v>
+        <v>0.9999354799588521</v>
       </c>
       <c r="L35">
-        <v>48.50315077476802</v>
+        <v>48.5173810959767</v>
       </c>
       <c r="M35">
-        <v>49.62528114637358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>49.95245542176514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>1.000030159950256</v>
+        <v>0.999846875667572</v>
       </c>
       <c r="C36">
-        <v>1.000543117523193</v>
+        <v>1.00006103515625</v>
       </c>
       <c r="D36">
-        <v>0.9979532957077026</v>
+        <v>0.9996815323829652</v>
       </c>
       <c r="E36">
-        <v>0.9990094304084778</v>
+        <v>1.00006103515625</v>
       </c>
       <c r="F36">
-        <v>14417264</v>
+        <v>2920016</v>
       </c>
       <c r="G36">
-        <v>0.9998822767402988</v>
+        <v>0.9999629874168889</v>
       </c>
       <c r="H36">
-        <v>0.9998207658529281</v>
+        <v>0.9999840438365937</v>
       </c>
       <c r="I36">
-        <v>0.9998031556606293</v>
+        <v>0.9999269684155782</v>
       </c>
       <c r="L36">
-        <v>36.81897781075611</v>
+        <v>51.1340241111012</v>
       </c>
       <c r="M36">
-        <v>42.116882564501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>51.68743681407422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.9989188313484192</v>
+        <v>1.000078082084656</v>
       </c>
       <c r="C37">
-        <v>1.000142931938171</v>
+        <v>1.000099778175354</v>
       </c>
       <c r="D37">
-        <v>0.998049259185791</v>
+        <v>0.9998041987419128</v>
       </c>
       <c r="E37">
-        <v>0.9998419284820556</v>
+        <v>1.000033736228943</v>
       </c>
       <c r="F37">
-        <v>11161088</v>
+        <v>16809968</v>
       </c>
       <c r="G37">
-        <v>0.9998786087168221</v>
+        <v>0.9999694191270756</v>
       </c>
       <c r="H37">
-        <v>0.999817070364952</v>
+        <v>0.9999829113483429</v>
       </c>
       <c r="I37">
-        <v>0.9997968852519989</v>
+        <v>0.9999056061108907</v>
       </c>
       <c r="L37">
-        <v>49.32737412250798</v>
+        <v>50.77541968790329</v>
       </c>
       <c r="M37">
-        <v>49.59736995497567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>51.45018506468246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>1.000014781951904</v>
+        <v>1.000044345855713</v>
       </c>
       <c r="C38">
-        <v>1.000644683837891</v>
+        <v>1.000206589698792</v>
       </c>
       <c r="D38">
-        <v>0.9988446831703186</v>
+        <v>0.9998730421066284</v>
       </c>
       <c r="E38">
-        <v>1.000113129615784</v>
+        <v>1.000029444694519</v>
       </c>
       <c r="F38">
-        <v>12276224</v>
+        <v>3636352</v>
       </c>
       <c r="G38">
-        <v>0.9998999287985458</v>
+        <v>0.9999748759968431</v>
       </c>
       <c r="H38">
-        <v>0.9998013705015183</v>
+        <v>0.9999884516000748</v>
       </c>
       <c r="I38">
-        <v>0.9998109797636668</v>
+        <v>0.9999116023381551</v>
       </c>
       <c r="L38">
-        <v>52.75528118919893</v>
+        <v>50.71252116987025</v>
       </c>
       <c r="M38">
-        <v>51.78345482264765</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>51.41023424338032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.9997609853744508</v>
+        <v>1.000009536743164</v>
       </c>
       <c r="C39">
-        <v>1.000595808029175</v>
+        <v>1.000113606452942</v>
       </c>
       <c r="D39">
-        <v>0.9993436932563782</v>
+        <v>0.999664843082428</v>
       </c>
       <c r="E39">
-        <v>0.9997498393058776</v>
+        <v>0.9999458789825439</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>39708928</v>
       </c>
       <c r="G39">
-        <v>0.9998862842992123</v>
+        <v>0.999972239904634</v>
       </c>
       <c r="H39">
-        <v>0.9998209625482559</v>
+        <v>0.9999587088823318</v>
       </c>
       <c r="I39">
-        <v>0.9997950951258342</v>
+        <v>0.9999096353848775</v>
       </c>
       <c r="L39">
-        <v>47.87464912356094</v>
+        <v>49.37271509855383</v>
       </c>
       <c r="M39">
-        <v>48.73419380353651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>50.58652522650095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.9997382164001464</v>
+        <v>0.999946653842926</v>
       </c>
       <c r="C40">
-        <v>1.000558853149414</v>
+        <v>1.000142097473144</v>
       </c>
       <c r="D40">
-        <v>0.9992513060569764</v>
+        <v>0.9998840093612672</v>
       </c>
       <c r="E40">
-        <v>0.999508500099182</v>
+        <v>1.000113606452942</v>
       </c>
       <c r="F40">
-        <v>2898112</v>
+        <v>20053840</v>
       </c>
       <c r="G40">
-        <v>0.9998519402810278</v>
+        <v>0.9999850914090256</v>
       </c>
       <c r="H40">
-        <v>0.9998249471187591</v>
+        <v>0.9999865502119064</v>
       </c>
       <c r="I40">
-        <v>0.9998290002346039</v>
+        <v>0.9999373118082683</v>
       </c>
       <c r="L40">
-        <v>44.77860410465343</v>
+        <v>52.22291295287535</v>
       </c>
       <c r="M40">
-        <v>46.76415220917515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>52.24055849240044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.9995879530906676</v>
+        <v>1.000043392181396</v>
       </c>
       <c r="C41">
-        <v>1.000473141670227</v>
+        <v>1.000273704528809</v>
       </c>
       <c r="D41">
-        <v>0.9975253343582152</v>
+        <v>0.9999995231628418</v>
       </c>
       <c r="E41">
-        <v>0.997642695903778</v>
+        <v>1.000197052955627</v>
       </c>
       <c r="F41">
-        <v>12765792</v>
+        <v>9115008</v>
       </c>
       <c r="G41">
-        <v>0.9996510998830959</v>
+        <v>1.000004360640535</v>
       </c>
       <c r="H41">
-        <v>0.9997198045253753</v>
+        <v>1.000008177757263</v>
       </c>
       <c r="I41">
-        <v>0.999730630715688</v>
+        <v>0.9999555925528208</v>
       </c>
       <c r="L41">
-        <v>28.65902301883903</v>
+        <v>53.68237602015014</v>
       </c>
       <c r="M41">
-        <v>34.98840198978367</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>53.08200576795736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.997757852077484</v>
+        <v>1.000185966491699</v>
       </c>
       <c r="C42">
-        <v>1.001101732254028</v>
+        <v>1.000370383262634</v>
       </c>
       <c r="D42">
-        <v>0.9952077269554138</v>
+        <v>1.000043272972107</v>
       </c>
       <c r="E42">
-        <v>1.000438332557678</v>
+        <v>1.000257611274719</v>
       </c>
       <c r="F42">
-        <v>79971488</v>
+        <v>4234016</v>
       </c>
       <c r="G42">
-        <v>0.9997226664898761</v>
+        <v>1.000027383425461</v>
       </c>
       <c r="H42">
-        <v>0.9997507035732269</v>
+        <v>1.00003570318222</v>
       </c>
       <c r="I42">
-        <v>0.9998050491015117</v>
+        <v>0.9999844332536062</v>
       </c>
       <c r="L42">
-        <v>55.60077263954532</v>
+        <v>54.80941667910356</v>
       </c>
       <c r="M42">
-        <v>53.77203638300336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>53.71926809215915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>1.000723719596863</v>
+        <v>1.00023353099823</v>
       </c>
       <c r="C43">
-        <v>1.001071333885193</v>
+        <v>1.000427603721619</v>
       </c>
       <c r="D43">
-        <v>0.9974846839904784</v>
+        <v>0.9999775290489196</v>
       </c>
       <c r="E43">
-        <v>0.9985854029655457</v>
+        <v>1.000319480895996</v>
       </c>
       <c r="F43">
-        <v>13769280</v>
+        <v>8323424</v>
       </c>
       <c r="G43">
-        <v>0.9996192788967551</v>
+        <v>1.000053937740964</v>
       </c>
       <c r="H43">
-        <v>0.9997074127197265</v>
+        <v>1.000055626034737</v>
       </c>
       <c r="I43">
-        <v>0.9997508664925893</v>
+        <v>1.000026353200277</v>
       </c>
       <c r="L43">
-        <v>43.38420726696423</v>
+        <v>56.03888730031708</v>
       </c>
       <c r="M43">
-        <v>44.57859631506184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>54.40070439820492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.9988482594490052</v>
+        <v>1.000294327735901</v>
       </c>
       <c r="C44">
-        <v>1.000589966773987</v>
+        <v>1.000499606132507</v>
       </c>
       <c r="D44">
-        <v>0.998269498348236</v>
+        <v>1.000011682510376</v>
       </c>
       <c r="E44">
-        <v>0.999774694442749</v>
+        <v>1.000290989875794</v>
       </c>
       <c r="F44">
-        <v>2182400</v>
+        <v>9156448</v>
       </c>
       <c r="G44">
-        <v>0.9996334075827545</v>
+        <v>1.000075487935039</v>
       </c>
       <c r="H44">
-        <v>0.9997334718704224</v>
+        <v>1.000077465176582</v>
       </c>
       <c r="I44">
-        <v>0.9997245053450267</v>
+        <v>1.000037008523941</v>
       </c>
       <c r="L44">
-        <v>51.13657111822577</v>
+        <v>55.26001851337198</v>
       </c>
       <c r="M44">
-        <v>50.43596176912461</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>54.00635142946514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.999696671962738</v>
+        <v>1.000281095504761</v>
       </c>
       <c r="C45">
-        <v>1.000554919242859</v>
+        <v>1.000417232513428</v>
       </c>
       <c r="D45">
-        <v>0.9981645941734314</v>
+        <v>0.9996867179870604</v>
       </c>
       <c r="E45">
-        <v>0.999803900718689</v>
+        <v>0.9999392032623292</v>
       </c>
       <c r="F45">
-        <v>11913120</v>
+        <v>13001920</v>
       </c>
       <c r="G45">
-        <v>0.9996489069587485</v>
+        <v>1.000063098419338</v>
       </c>
       <c r="H45">
-        <v>0.9997668951749802</v>
+        <v>1.000099021196365</v>
       </c>
       <c r="I45">
-        <v>0.9997098982334137</v>
+        <v>1.000020549694697</v>
       </c>
       <c r="L45">
-        <v>51.32072507551548</v>
+        <v>46.31777803950222</v>
       </c>
       <c r="M45">
-        <v>50.57411207195107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>49.25829413309165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.9999167323112488</v>
+        <v>0.999914824962616</v>
       </c>
       <c r="C46">
-        <v>1.000641584396362</v>
+        <v>1.000212907791138</v>
       </c>
       <c r="D46">
-        <v>0.998744785785675</v>
+        <v>0.9998695254325868</v>
       </c>
       <c r="E46">
-        <v>0.999190628528595</v>
+        <v>1.000151515007019</v>
       </c>
       <c r="F46">
-        <v>8327904</v>
+        <v>2525856</v>
       </c>
       <c r="G46">
-        <v>0.99960724528328</v>
+        <v>1.000071136290946</v>
       </c>
       <c r="H46">
-        <v>0.9997597843408584</v>
+        <v>1.000087010860443</v>
       </c>
       <c r="I46">
-        <v>0.9997021456559499</v>
+        <v>1.000031979878744</v>
       </c>
       <c r="L46">
-        <v>47.12525667139066</v>
+        <v>51.6320109271657</v>
       </c>
       <c r="M46">
-        <v>47.57543501712546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>52.00102067147559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.9992160201072692</v>
+        <v>1.000107526779175</v>
       </c>
       <c r="C47">
-        <v>1.000664830207825</v>
+        <v>1.000140309333801</v>
       </c>
       <c r="D47">
-        <v>0.9985621571540833</v>
+        <v>0.999666392803192</v>
       </c>
       <c r="E47">
-        <v>1.000316381454468</v>
+        <v>0.9999091625213624</v>
       </c>
       <c r="F47">
-        <v>6213600</v>
+        <v>11510720</v>
       </c>
       <c r="G47">
-        <v>0.9996717122079335</v>
+        <v>1.000056411402802</v>
       </c>
       <c r="H47">
-        <v>0.99981569647789</v>
+        <v>1.000102233886719</v>
       </c>
       <c r="I47">
-        <v>0.9997154970963796</v>
+        <v>1.000027072429657</v>
       </c>
       <c r="L47">
-        <v>54.76237926271553</v>
+        <v>45.80853262943042</v>
       </c>
       <c r="M47">
-        <v>53.07558795941457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>48.76099712925905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>1.000259399414062</v>
+        <v>0.9999297857284546</v>
       </c>
       <c r="C48">
-        <v>1.001217007637024</v>
+        <v>1.000269293785095</v>
       </c>
       <c r="D48">
-        <v>0.9996368288993835</v>
+        <v>0.9998106956481934</v>
       </c>
       <c r="E48">
-        <v>1.000674605369568</v>
+        <v>1.000241756439209</v>
       </c>
       <c r="F48">
-        <v>1387616</v>
+        <v>3340544</v>
       </c>
       <c r="G48">
-        <v>0.9997628843135365</v>
+        <v>1.000073260951566</v>
       </c>
       <c r="H48">
-        <v>0.9998479783535004</v>
+        <v>1.000132188200951</v>
       </c>
       <c r="I48">
-        <v>0.9997237463792165</v>
+        <v>1.000037842988968</v>
       </c>
       <c r="L48">
-        <v>56.98646068917196</v>
+        <v>53.845572720377</v>
       </c>
       <c r="M48">
-        <v>54.70411456925011</v>
+        <v>53.08147838247806</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2389,34 +2386,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>1.000699639320374</v>
+        <v>1.00023889541626</v>
       </c>
       <c r="C49">
-        <v>1.001445889472961</v>
+        <v>1.000471591949463</v>
       </c>
       <c r="D49">
-        <v>0.9996194243431092</v>
+        <v>0.9994624257087708</v>
       </c>
       <c r="E49">
-        <v>0.9998495578765868</v>
+        <v>0.9995775818824768</v>
       </c>
       <c r="F49">
-        <v>5784096</v>
+        <v>7442016</v>
       </c>
       <c r="G49">
-        <v>0.9997707637283593</v>
+        <v>1.000028199218013</v>
       </c>
       <c r="H49">
-        <v>0.9998310804367065</v>
+        <v>1.000103580951691</v>
       </c>
       <c r="I49">
-        <v>0.9997401316960652</v>
+        <v>1.00000573794047</v>
       </c>
       <c r="L49">
-        <v>50.54734572821196</v>
+        <v>40.38866727811209</v>
       </c>
       <c r="M49">
-        <v>50.36837658418209</v>
+        <v>44.93342931673529</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2424,34 +2421,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.9999681711196901</v>
+        <v>0.9996060132980348</v>
       </c>
       <c r="C50">
-        <v>1.000977396965027</v>
+        <v>0.9999845027923584</v>
       </c>
       <c r="D50">
-        <v>0.9993156790733336</v>
+        <v>0.9993749260902404</v>
       </c>
       <c r="E50">
-        <v>1.000004887580872</v>
+        <v>0.9999199509620668</v>
       </c>
       <c r="F50">
-        <v>3705504</v>
+        <v>58664448</v>
       </c>
       <c r="G50">
-        <v>0.9997920477149513</v>
+        <v>1.000018358467472</v>
       </c>
       <c r="H50">
-        <v>0.999818217754364</v>
+        <v>1.000064346194267</v>
       </c>
       <c r="I50">
-        <v>0.9997593343257904</v>
+        <v>1.000017843643824</v>
       </c>
       <c r="L50">
-        <v>51.70319443075051</v>
+        <v>47.93454390724663</v>
       </c>
       <c r="M50">
-        <v>51.15331997550479</v>
+        <v>49.2573778452962</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2459,34 +2456,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.9998447895050048</v>
+        <v>0.9999175667762756</v>
       </c>
       <c r="C51">
-        <v>1.000651597976685</v>
+        <v>1.000132322311401</v>
       </c>
       <c r="D51">
-        <v>0.9986199736595154</v>
+        <v>0.9998472929000854</v>
       </c>
       <c r="E51">
-        <v>0.9992833137512208</v>
+        <v>0.9999395608901978</v>
       </c>
       <c r="F51">
-        <v>22190624</v>
+        <v>6448032</v>
       </c>
       <c r="G51">
-        <v>0.9997457991727939</v>
+        <v>1.000011195051356</v>
       </c>
       <c r="H51">
-        <v>0.9997537314891816</v>
+        <v>1.000067481398582</v>
       </c>
       <c r="I51">
-        <v>0.999743926525116</v>
+        <v>1.000023678938548</v>
       </c>
       <c r="L51">
-        <v>46.07515687736937</v>
+        <v>48.35579058786156</v>
       </c>
       <c r="M51">
-        <v>47.40277350626131</v>
+        <v>49.50196470209582</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2494,34 +2491,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.9992696046829224</v>
+        <v>0.9999364614486694</v>
       </c>
       <c r="C52">
-        <v>1.000365138053894</v>
+        <v>1.000080227851868</v>
       </c>
       <c r="D52">
-        <v>0.9989154934883118</v>
+        <v>0.9998421669006348</v>
       </c>
       <c r="E52">
-        <v>0.9996486306190492</v>
+        <v>0.9999522566795348</v>
       </c>
       <c r="F52">
-        <v>6451712</v>
+        <v>8846048</v>
       </c>
       <c r="G52">
-        <v>0.9997369656679079</v>
+        <v>1.000005837017554</v>
       </c>
       <c r="H52">
-        <v>0.9997132688760757</v>
+        <v>1.000015103816986</v>
       </c>
       <c r="I52">
-        <v>0.9997382024923961</v>
+        <v>1.000031850735347</v>
       </c>
       <c r="L52">
-        <v>49.22323917464735</v>
+        <v>48.65833766980519</v>
       </c>
       <c r="M52">
-        <v>49.42455435501446</v>
+        <v>49.67110457421339</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2529,34 +2526,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.999672532081604</v>
+        <v>0.9999430775642396</v>
       </c>
       <c r="C53">
-        <v>1.000573039054871</v>
+        <v>1.000118851661682</v>
       </c>
       <c r="D53">
-        <v>0.99830824136734</v>
+        <v>0.9998217821121216</v>
       </c>
       <c r="E53">
-        <v>0.9993923902511596</v>
+        <v>1.000002145767212</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>482720</v>
       </c>
       <c r="G53">
-        <v>0.9997056406300217</v>
+        <v>1.000005501449341</v>
       </c>
       <c r="H53">
-        <v>0.9996454149484635</v>
+        <v>1.000021132826805</v>
       </c>
       <c r="I53">
-        <v>0.999736241499583</v>
+        <v>1.000034554799398</v>
       </c>
       <c r="L53">
-        <v>47.05554342371789</v>
+        <v>49.95442828803086</v>
       </c>
       <c r="M53">
-        <v>48.02996604274986</v>
+        <v>50.37451183383981</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2564,34 +2561,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.9994248151779176</v>
+        <v>1.000001192092896</v>
       </c>
       <c r="C54">
-        <v>1.000542521476746</v>
+        <v>1.000107526779175</v>
       </c>
       <c r="D54">
-        <v>0.9987229108810424</v>
+        <v>0.9997657537460328</v>
       </c>
       <c r="E54">
-        <v>0.99906188249588</v>
+        <v>1.000089764595032</v>
       </c>
       <c r="F54">
-        <v>9633984</v>
+        <v>4165440</v>
       </c>
       <c r="G54">
-        <v>0.9996471171632815</v>
+        <v>1.000013161735313</v>
       </c>
       <c r="H54">
-        <v>0.9995906770229339</v>
+        <v>1.00004058778286</v>
       </c>
       <c r="I54">
-        <v>0.9997298538684845</v>
+        <v>1.000042406717936</v>
       </c>
       <c r="L54">
-        <v>44.2292066198681</v>
+        <v>52.33201640404894</v>
       </c>
       <c r="M54">
-        <v>46.21846910577337</v>
+        <v>51.65253783504652</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2599,34 +2596,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.9991487860679626</v>
+        <v>1.000097393989563</v>
       </c>
       <c r="C55">
-        <v>1.000635743141174</v>
+        <v>1.000246644020081</v>
       </c>
       <c r="D55">
-        <v>0.9982340931892396</v>
+        <v>0.9997835159301758</v>
       </c>
       <c r="E55">
-        <v>0.999971330165863</v>
+        <v>0.9998781085014344</v>
       </c>
       <c r="F55">
-        <v>8091072</v>
+        <v>146496</v>
       </c>
       <c r="G55">
-        <v>0.999676591072607</v>
+        <v>1.000000884168597</v>
       </c>
       <c r="H55">
-        <v>0.999593073129654</v>
+        <v>1.00004249215126</v>
       </c>
       <c r="I55">
-        <v>0.9997577170530955</v>
+        <v>1.000054740905762</v>
       </c>
       <c r="L55">
-        <v>52.97315434109084</v>
+        <v>46.34806041366874</v>
       </c>
       <c r="M55">
-        <v>51.62509357751092</v>
+        <v>48.40927953840747</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2634,34 +2631,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>1.000060319900513</v>
+        <v>0.9998852014541626</v>
       </c>
       <c r="C56">
-        <v>1.001352310180664</v>
+        <v>0.9999787211418152</v>
       </c>
       <c r="D56">
-        <v>0.9993438720703124</v>
+        <v>0.9995733499526978</v>
       </c>
       <c r="E56">
-        <v>1.000432968139648</v>
+        <v>0.9998694062232972</v>
       </c>
       <c r="F56">
-        <v>2494624</v>
+        <v>17116096</v>
       </c>
       <c r="G56">
-        <v>0.9997453526241562</v>
+        <v>0.9999889316281152</v>
       </c>
       <c r="H56">
-        <v>0.9996642500162125</v>
+        <v>1.000032910704613</v>
       </c>
       <c r="I56">
-        <v>0.9997943878173828</v>
+        <v>1.000037330389023</v>
       </c>
       <c r="L56">
-        <v>56.83756279227902</v>
+        <v>46.104214068338</v>
       </c>
       <c r="M56">
-        <v>54.14502103663717</v>
+        <v>48.27506498606601</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2669,34 +2666,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>1.00032651424408</v>
+        <v>0.999846875667572</v>
       </c>
       <c r="C57">
-        <v>1.000379323959351</v>
+        <v>1.000235319137573</v>
       </c>
       <c r="D57">
-        <v>0.9993531703948976</v>
+        <v>0.999573528766632</v>
       </c>
       <c r="E57">
-        <v>0.9998086094856262</v>
+        <v>1.000137567520142</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>35738272</v>
       </c>
       <c r="G57">
-        <v>0.9997511032479262</v>
+        <v>1.000002443981936</v>
       </c>
       <c r="H57">
-        <v>0.999662584066391</v>
+        <v>1.000038102269173</v>
       </c>
       <c r="I57">
-        <v>0.9998147368431092</v>
+        <v>1.000055092573166</v>
       </c>
       <c r="L57">
-        <v>50.52082642031519</v>
+        <v>54.41791719277644</v>
       </c>
       <c r="M57">
-        <v>50.32660840931687</v>
+        <v>52.63312808359265</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2704,34 +2701,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.999799370765686</v>
+        <v>1.000119805335998</v>
       </c>
       <c r="C58">
-        <v>1.00021493434906</v>
+        <v>1.000274181365967</v>
       </c>
       <c r="D58">
-        <v>0.9980942606925964</v>
+        <v>1.000020146369934</v>
       </c>
       <c r="E58">
-        <v>1.000056385993958</v>
+        <v>1.000140309333801</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2923808</v>
       </c>
       <c r="G58">
-        <v>0.9997788562248381</v>
+        <v>1.000014977195742</v>
       </c>
       <c r="H58">
-        <v>0.9996597468852997</v>
+        <v>1.000043645501137</v>
       </c>
       <c r="I58">
-        <v>0.9998156507809957</v>
+        <v>1.000071680545807</v>
       </c>
       <c r="L58">
-        <v>52.85980987707414</v>
+        <v>54.49865153870398</v>
       </c>
       <c r="M58">
-        <v>51.77993363177129</v>
+        <v>52.67703086823031</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2739,34 +2736,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>1.000200629234314</v>
+        <v>1.000126123428345</v>
       </c>
       <c r="C59">
-        <v>1.000680565834045</v>
+        <v>1.000213265419006</v>
       </c>
       <c r="D59">
-        <v>0.9995223879814148</v>
+        <v>0.9999052286148072</v>
       </c>
       <c r="E59">
-        <v>0.9999186396598816</v>
+        <v>1.000076055526733</v>
       </c>
       <c r="F59">
-        <v>176928</v>
+        <v>80327104</v>
       </c>
       <c r="G59">
-        <v>0.999791563809842</v>
+        <v>1.000020529771286</v>
       </c>
       <c r="H59">
-        <v>0.9996681869029999</v>
+        <v>1.000050154328346</v>
       </c>
       <c r="I59">
-        <v>0.999806688229243</v>
+        <v>1.000069224834442</v>
       </c>
       <c r="L59">
-        <v>51.34188945644075</v>
+        <v>52.06732717961065</v>
       </c>
       <c r="M59">
-        <v>50.88855197100097</v>
+        <v>51.47298690338004</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2774,34 +2771,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.9999845623970032</v>
+        <v>1.000077724456787</v>
       </c>
       <c r="C60">
-        <v>1.000768303871155</v>
+        <v>1.000136375427246</v>
       </c>
       <c r="D60">
-        <v>0.9992633461952209</v>
+        <v>0.999846339225769</v>
       </c>
       <c r="E60">
-        <v>1.000540733337402</v>
+        <v>1.000027060508728</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4701760</v>
       </c>
       <c r="G60">
-        <v>0.9998596701305292</v>
+        <v>1.00002112347469</v>
       </c>
       <c r="H60">
-        <v>0.9997197985649109</v>
+        <v>1.000045827031136</v>
       </c>
       <c r="I60">
-        <v>0.999815974632899</v>
+        <v>1.000046638647715</v>
       </c>
       <c r="L60">
-        <v>57.53716532888016</v>
+        <v>50.14813906568702</v>
       </c>
       <c r="M60">
-        <v>54.68279982110565</v>
+        <v>50.52465115749988</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2809,34 +2806,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>1.000443935394287</v>
+        <v>1.000034928321838</v>
       </c>
       <c r="C61">
-        <v>1.000625371932983</v>
+        <v>1.000167608261108</v>
       </c>
       <c r="D61">
-        <v>0.9989084005355836</v>
+        <v>0.9998052716255188</v>
       </c>
       <c r="E61">
-        <v>0.9995567798614502</v>
+        <v>1.0001460313797</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.9998321346515221</v>
+        <v>1.000032478738782</v>
       </c>
       <c r="H61">
-        <v>0.9998155027627945</v>
+        <v>1.000043275952339</v>
       </c>
       <c r="I61">
-        <v>0.9997820993264516</v>
+        <v>1.000055611133575</v>
       </c>
       <c r="L61">
-        <v>46.90950712950568</v>
+        <v>54.70860485041474</v>
       </c>
       <c r="M61">
-        <v>48.32355824894444</v>
+        <v>52.79875157836668</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2844,34 +2841,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.999628484249115</v>
+        <v>1.00014078617096</v>
       </c>
       <c r="C62">
-        <v>0.9998711943626404</v>
+        <v>1.000207543373108</v>
       </c>
       <c r="D62">
-        <v>0.9980654120445251</v>
+        <v>0.9998968243598938</v>
       </c>
       <c r="E62">
-        <v>0.9997645020484924</v>
+        <v>1.000035285949707</v>
       </c>
       <c r="F62">
-        <v>709888</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.9998259862330648</v>
+        <v>1.000032733939775</v>
       </c>
       <c r="H62">
-        <v>0.9997818112373352</v>
+        <v>1.000032159686089</v>
       </c>
       <c r="I62">
-        <v>0.9997589866320292</v>
+        <v>1.000023460388184</v>
       </c>
       <c r="L62">
-        <v>49.14061744790694</v>
+        <v>49.92572066764637</v>
       </c>
       <c r="M62">
-        <v>49.65464688919114</v>
+        <v>50.47306949806902</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2879,34 +2876,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.999914526939392</v>
+        <v>1.00003981590271</v>
       </c>
       <c r="C63">
-        <v>1.000690340995789</v>
+        <v>1.000121355056763</v>
       </c>
       <c r="D63">
-        <v>0.999292016029358</v>
+        <v>0.9998864531517028</v>
       </c>
       <c r="E63">
-        <v>0.9997071027755736</v>
+        <v>1.000032544136047</v>
       </c>
       <c r="F63">
-        <v>1133168</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.9998151786460201</v>
+        <v>1.000032716684891</v>
       </c>
       <c r="H63">
-        <v>0.9998378962278366</v>
+        <v>1.000017812848091</v>
       </c>
       <c r="I63">
-        <v>0.9997242410977681</v>
+        <v>1.000028493007024</v>
       </c>
       <c r="L63">
-        <v>48.50691703853786</v>
+        <v>49.80444686640828</v>
       </c>
       <c r="M63">
-        <v>49.27693017103068</v>
+        <v>50.41386244160843</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2914,34 +2911,34 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.999595046043396</v>
+        <v>1.000005483627319</v>
       </c>
       <c r="C64">
-        <v>1.000335931777954</v>
+        <v>1.000102877616882</v>
       </c>
       <c r="D64">
-        <v>0.9993589520454408</v>
+        <v>0.9998463988304138</v>
       </c>
       <c r="E64">
-        <v>0.9999210238456726</v>
+        <v>0.9999850988388062</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.9998248009368975</v>
+        <v>1.000028387789792</v>
       </c>
       <c r="H64">
-        <v>0.9998452126979828</v>
+        <v>1.000002518296242</v>
       </c>
       <c r="I64">
-        <v>0.9997163871924083</v>
+        <v>1.000037974119186</v>
       </c>
       <c r="L64">
-        <v>51.14825027232846</v>
+        <v>47.55563862311885</v>
       </c>
       <c r="M64">
-        <v>50.77966626722032</v>
+        <v>49.3353822565724</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2949,34 +2946,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>1.000054717063904</v>
+        <v>0.999980926513672</v>
       </c>
       <c r="C65">
-        <v>1.000282406806946</v>
+        <v>1.000191807746887</v>
       </c>
       <c r="D65">
-        <v>0.9985925555229188</v>
+        <v>0.9999156594276428</v>
       </c>
       <c r="E65">
-        <v>0.9998542070388794</v>
+        <v>1.000058054924011</v>
       </c>
       <c r="F65">
-        <v>1824208</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.9998274742188958</v>
+        <v>1.000031084801994</v>
       </c>
       <c r="H65">
-        <v>0.9998477280139924</v>
+        <v>1.000008460879326</v>
       </c>
       <c r="I65">
-        <v>0.9997140804926554</v>
+        <v>1.000045241912206</v>
       </c>
       <c r="L65">
-        <v>50.24266030001467</v>
+        <v>51.35526600561223</v>
       </c>
       <c r="M65">
-        <v>50.27862052047274</v>
+        <v>51.06879175270566</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2984,34 +2981,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.9997973442077636</v>
+        <v>1.000047445297241</v>
       </c>
       <c r="C66">
-        <v>1.000465512275696</v>
+        <v>1.000238418579102</v>
       </c>
       <c r="D66">
-        <v>0.998597264289856</v>
+        <v>0.9999042153358459</v>
       </c>
       <c r="E66">
-        <v>0.9995080828666688</v>
+        <v>1.000121831893921</v>
       </c>
       <c r="F66">
-        <v>787184</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.9997984386414206</v>
+        <v>1.000039334537624</v>
       </c>
       <c r="H66">
-        <v>0.999863600730896</v>
+        <v>1.000006976723671</v>
       </c>
       <c r="I66">
-        <v>0.9997307022412618</v>
+        <v>1.000047268470128</v>
       </c>
       <c r="L66">
-        <v>45.54344407321067</v>
+        <v>54.59076504271386</v>
       </c>
       <c r="M66">
-        <v>47.65542431659713</v>
+        <v>52.5956599492911</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3019,34 +3016,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.9993789792060852</v>
+        <v>1.000101566314697</v>
       </c>
       <c r="C67">
-        <v>1.000532746315002</v>
+        <v>1.000209450721741</v>
       </c>
       <c r="D67">
-        <v>0.9985665678977966</v>
+        <v>0.9998732209205629</v>
       </c>
       <c r="E67">
-        <v>1.000391721725464</v>
+        <v>1.000136971473694</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1855872</v>
       </c>
       <c r="G67">
-        <v>0.9998523734672428</v>
+        <v>1.000048210622721</v>
       </c>
       <c r="H67">
-        <v>0.9998673677444458</v>
+        <v>1.000018367171287</v>
       </c>
       <c r="I67">
-        <v>0.9997490286827088</v>
+        <v>1.000050709644953</v>
       </c>
       <c r="L67">
-        <v>57.07438456669355</v>
+        <v>55.38327655008779</v>
       </c>
       <c r="M67">
-        <v>54.22190534407328</v>
+        <v>52.97082090177512</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3054,34 +3051,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>1.000357270240784</v>
+        <v>1.000098824501038</v>
       </c>
       <c r="C68">
-        <v>1.000485420227051</v>
+        <v>1.000119686126709</v>
       </c>
       <c r="D68">
-        <v>0.9978544116020204</v>
+        <v>0.9997071027755736</v>
       </c>
       <c r="E68">
-        <v>0.9996047019958496</v>
+        <v>0.9998504519462584</v>
       </c>
       <c r="F68">
-        <v>5238096</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.9998298578789342</v>
+        <v>1.000030232561224</v>
       </c>
       <c r="H68">
-        <v>0.9998138725757599</v>
+        <v>0.99999880194664</v>
       </c>
       <c r="I68">
-        <v>0.9997320810953776</v>
+        <v>1.000044743220011</v>
       </c>
       <c r="L68">
-        <v>47.08458750407383</v>
+        <v>40.37913050557124</v>
       </c>
       <c r="M68">
-        <v>48.39836369401747</v>
+        <v>45.6135246158361</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3089,34 +3086,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.9995331168174744</v>
+        <v>0.9998602867126464</v>
       </c>
       <c r="C69">
-        <v>1.000077724456787</v>
+        <v>1.000041604042053</v>
       </c>
       <c r="D69">
-        <v>0.9972613453865052</v>
+        <v>0.9996152520179749</v>
       </c>
       <c r="E69">
-        <v>0.9996426701545716</v>
+        <v>0.999746799468994</v>
       </c>
       <c r="F69">
-        <v>8122704</v>
+        <v>11300160</v>
       </c>
       <c r="G69">
-        <v>0.9998128408130831</v>
+        <v>1.000004465916476</v>
       </c>
       <c r="H69">
-        <v>0.9998035281896591</v>
+        <v>1.000007262825966</v>
       </c>
       <c r="I69">
-        <v>0.999728508790334</v>
+        <v>1.000038107236226</v>
       </c>
       <c r="L69">
-        <v>47.58252855897783</v>
+        <v>36.36913744876269</v>
       </c>
       <c r="M69">
-        <v>48.68470096107733</v>
+        <v>43.27200037624204</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3124,34 +3121,34 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.9999144673347472</v>
+        <v>0.999705135822296</v>
       </c>
       <c r="C70">
-        <v>1.00086510181427</v>
+        <v>1.000093936920166</v>
       </c>
       <c r="D70">
-        <v>0.999317228794098</v>
+        <v>0.999705135822296</v>
       </c>
       <c r="E70">
-        <v>1.000149726867676</v>
+        <v>0.999881386756897</v>
       </c>
       <c r="F70">
-        <v>4762720</v>
+        <v>8828736</v>
       </c>
       <c r="G70">
-        <v>0.999843466818046</v>
+        <v>0.9999932769019687</v>
       </c>
       <c r="H70">
-        <v>0.9998107701539993</v>
+        <v>1.000005334615707</v>
       </c>
       <c r="I70">
-        <v>0.9997498830159505</v>
+        <v>1.000030366579691</v>
       </c>
       <c r="L70">
-        <v>54.07531944968931</v>
+        <v>44.4303633696866</v>
       </c>
       <c r="M70">
-        <v>52.47730212155443</v>
+        <v>47.07131426407303</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3159,34 +3156,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>1.000039219856262</v>
+        <v>0.99989914894104</v>
       </c>
       <c r="C71">
-        <v>1.000904321670532</v>
+        <v>1.000155091285706</v>
       </c>
       <c r="D71">
-        <v>0.9988871216773988</v>
+        <v>0.9998689293861388</v>
       </c>
       <c r="E71">
-        <v>1.000704646110535</v>
+        <v>1.000078916549683</v>
       </c>
       <c r="F71">
-        <v>3934240</v>
+        <v>6930656</v>
       </c>
       <c r="G71">
-        <v>0.9999217558446358</v>
+        <v>1.000001062324488</v>
       </c>
       <c r="H71">
-        <v>0.9998818367719651</v>
+        <v>1.000012302398682</v>
       </c>
       <c r="I71">
-        <v>0.9998519480228424</v>
+        <v>1.000026428699493</v>
       </c>
       <c r="L71">
-        <v>60.15225789616644</v>
+        <v>54.04343047797155</v>
       </c>
       <c r="M71">
-        <v>56.28513099289525</v>
+        <v>52.13787161377734</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3194,34 +3191,34 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>1.000704407691956</v>
+        <v>1.000025868415832</v>
       </c>
       <c r="C72">
-        <v>1.001767992973328</v>
+        <v>1.000236868858337</v>
       </c>
       <c r="D72">
-        <v>0.9995156526565552</v>
+        <v>0.999633252620697</v>
       </c>
       <c r="E72">
-        <v>0.999876856803894</v>
+        <v>0.999919056892395</v>
       </c>
       <c r="F72">
-        <v>9189664</v>
+        <v>16767744</v>
       </c>
       <c r="G72">
-        <v>0.9999176741136593</v>
+        <v>0.9999936072852069</v>
       </c>
       <c r="H72">
-        <v>0.9998932480812073</v>
+        <v>1.000010642409325</v>
       </c>
       <c r="I72">
-        <v>0.9998332321643829</v>
+        <v>1.000015143553416</v>
       </c>
       <c r="L72">
-        <v>49.22179220740058</v>
+        <v>46.68974997106502</v>
       </c>
       <c r="M72">
-        <v>49.86627054454803</v>
+        <v>48.12305258747767</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3229,34 +3226,34 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.9999827146530152</v>
+        <v>0.9998992681503296</v>
       </c>
       <c r="C73">
-        <v>1.001966595649719</v>
+        <v>1.000201344490051</v>
       </c>
       <c r="D73">
-        <v>0.9995591640472412</v>
+        <v>0.999792456626892</v>
       </c>
       <c r="E73">
-        <v>1.000999808311462</v>
+        <v>0.9999579787254332</v>
       </c>
       <c r="F73">
-        <v>21168000</v>
+        <v>117645120</v>
       </c>
       <c r="G73">
-        <v>1.000016049949823</v>
+        <v>0.9999903683252275</v>
       </c>
       <c r="H73">
-        <v>0.9999736189842224</v>
+        <v>1.000008434057236</v>
       </c>
       <c r="I73">
-        <v>0.9999137123425802</v>
+        <v>1.000003093481064</v>
       </c>
       <c r="L73">
-        <v>60.24627598886586</v>
+        <v>48.60527285031363</v>
       </c>
       <c r="M73">
-        <v>57.02599002641104</v>
+        <v>49.14975554140911</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3264,34 +3261,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>1.001153469085693</v>
+        <v>0.9999340772628784</v>
       </c>
       <c r="C74">
-        <v>1.001153469085693</v>
+        <v>1.000218749046326</v>
       </c>
       <c r="D74">
-        <v>0.9991033673286438</v>
+        <v>0.9997954964637756</v>
       </c>
       <c r="E74">
-        <v>0.9998815655708312</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>5517904</v>
+        <v>14637792</v>
       </c>
       <c r="G74">
-        <v>1.000003824097188</v>
+        <v>0.999991243932025</v>
       </c>
       <c r="H74">
-        <v>1.00001460313797</v>
+        <v>1.000003945827484</v>
       </c>
       <c r="I74">
-        <v>0.9999172747135162</v>
+        <v>0.9999933938185374</v>
       </c>
       <c r="L74">
-        <v>48.45966588805449</v>
+        <v>50.7544493369767</v>
       </c>
       <c r="M74">
-        <v>49.45222845281837</v>
+        <v>50.29353912730011</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3299,34 +3296,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.9996655583381652</v>
+        <v>0.9999420642852784</v>
       </c>
       <c r="C75">
-        <v>1.00041925907135</v>
+        <v>1.000112295150757</v>
       </c>
       <c r="D75">
-        <v>0.998388171195984</v>
+        <v>0.9996998310089112</v>
       </c>
       <c r="E75">
-        <v>0.999700665473938</v>
+        <v>0.9999713897705078</v>
       </c>
       <c r="F75">
-        <v>16576</v>
+        <v>1579072</v>
       </c>
       <c r="G75">
-        <v>0.9999762642223466</v>
+        <v>0.9999894390082507</v>
       </c>
       <c r="H75">
-        <v>1.000001069903374</v>
+        <v>1.000008609890938</v>
       </c>
       <c r="I75">
-        <v>0.9999138335386912</v>
+        <v>0.9999944667021433</v>
       </c>
       <c r="L75">
-        <v>46.79356951045787</v>
+        <v>49.1792340459508</v>
       </c>
       <c r="M75">
-        <v>48.33387821567113</v>
+        <v>49.47752886730342</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3334,34 +3331,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.9996406435966492</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="C76">
-        <v>1.000614643096924</v>
+        <v>1.000026941299438</v>
       </c>
       <c r="D76">
-        <v>0.999117910861969</v>
+        <v>0.999681830406189</v>
       </c>
       <c r="E76">
-        <v>0.9998400211334229</v>
+        <v>0.9998270273208618</v>
       </c>
       <c r="F76">
-        <v>2216128</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.99996387848699</v>
+        <v>0.9999746743093971</v>
       </c>
       <c r="H76">
-        <v>0.9999714225530625</v>
+        <v>1.000006490945816</v>
       </c>
       <c r="I76">
-        <v>0.9999354799588521</v>
+        <v>0.9999836504459381</v>
       </c>
       <c r="L76">
-        <v>48.33303855217338</v>
+        <v>41.81275430076895</v>
       </c>
       <c r="M76">
-        <v>49.2853499586809</v>
+        <v>45.46873370409688</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3369,34 +3366,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.999846875667572</v>
+        <v>0.999823272228241</v>
       </c>
       <c r="C77">
-        <v>1.00006103515625</v>
+        <v>1.000022649765015</v>
       </c>
       <c r="D77">
-        <v>0.9996815323829652</v>
+        <v>0.9994967579841614</v>
       </c>
       <c r="E77">
-        <v>1.00006103515625</v>
+        <v>0.9998682141304016</v>
       </c>
       <c r="F77">
-        <v>2920016</v>
+        <v>1677536</v>
       </c>
       <c r="G77">
-        <v>0.9999727109114681</v>
+        <v>0.9999649961113066</v>
       </c>
       <c r="H77">
-        <v>0.9999840438365937</v>
+        <v>0.999993023276329</v>
       </c>
       <c r="I77">
-        <v>0.9999269684155782</v>
+        <v>0.9999822854995728</v>
       </c>
       <c r="L77">
-        <v>50.86937501747909</v>
+        <v>44.48188231076823</v>
       </c>
       <c r="M77">
-        <v>50.83186334570723</v>
+        <v>46.79326155439828</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3404,34 +3401,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>1.000078082084656</v>
+        <v>0.9998695254325868</v>
       </c>
       <c r="C78">
-        <v>1.000099778175354</v>
+        <v>1.000085949897766</v>
       </c>
       <c r="D78">
-        <v>0.9998041987419128</v>
+        <v>0.9996318817138672</v>
       </c>
       <c r="E78">
-        <v>1.000033736228943</v>
+        <v>0.9997756481170654</v>
       </c>
       <c r="F78">
-        <v>16809968</v>
+        <v>3975456</v>
       </c>
       <c r="G78">
-        <v>0.9999782586676023</v>
+        <v>0.9999477826572847</v>
       </c>
       <c r="H78">
-        <v>0.9999829113483429</v>
+        <v>0.9999747902154923</v>
       </c>
       <c r="I78">
-        <v>0.9999056061108907</v>
+        <v>0.9999667485555013</v>
       </c>
       <c r="L78">
-        <v>50.52472667660798</v>
+        <v>39.85898955796939</v>
       </c>
       <c r="M78">
-        <v>50.62650675359635</v>
+        <v>44.19509111648614</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3439,34 +3436,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>1.000044345855713</v>
+        <v>0.9998419880867004</v>
       </c>
       <c r="C79">
-        <v>1.000206589698792</v>
+        <v>1.000176072120667</v>
       </c>
       <c r="D79">
-        <v>0.9998730421066284</v>
+        <v>0.9997297525405884</v>
       </c>
       <c r="E79">
-        <v>1.000029444694519</v>
+        <v>1.000151872634888</v>
       </c>
       <c r="F79">
-        <v>3636352</v>
+        <v>818848</v>
       </c>
       <c r="G79">
-        <v>0.9999829119427764</v>
+        <v>0.9999663362916122</v>
       </c>
       <c r="H79">
-        <v>0.9999884516000748</v>
+        <v>0.9999785810709</v>
       </c>
       <c r="I79">
-        <v>0.9999116023381551</v>
+        <v>0.9999858915805817</v>
       </c>
       <c r="L79">
-        <v>50.46425900695389</v>
+        <v>59.23203060933628</v>
       </c>
       <c r="M79">
-        <v>50.5919044232288</v>
+        <v>55.10583651099881</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3474,34 +3471,34 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>1.000009536743164</v>
+        <v>1.000158429145813</v>
       </c>
       <c r="C80">
-        <v>1.000113606452942</v>
+        <v>1.000331521034241</v>
       </c>
       <c r="D80">
-        <v>0.999664843082428</v>
+        <v>0.999924659729004</v>
       </c>
       <c r="E80">
-        <v>0.9999458789825439</v>
+        <v>1.000128984451294</v>
       </c>
       <c r="F80">
-        <v>39708928</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.999979545310028</v>
+        <v>0.9999811224879469</v>
       </c>
       <c r="H80">
-        <v>0.9999587088823318</v>
+        <v>0.9999836772680283</v>
       </c>
       <c r="I80">
-        <v>0.9999096353848775</v>
+        <v>0.9999928593635559</v>
       </c>
       <c r="L80">
-        <v>49.17502460844106</v>
+        <v>57.95432820858934</v>
       </c>
       <c r="M80">
-        <v>49.87703257601968</v>
+        <v>54.40888785572976</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3509,34 +3506,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.999946653842926</v>
+        <v>1.000131011009216</v>
       </c>
       <c r="C81">
-        <v>1.000142097473144</v>
+        <v>1.000288248062134</v>
       </c>
       <c r="D81">
-        <v>0.9998840093612672</v>
+        <v>1.000010371208191</v>
       </c>
       <c r="E81">
-        <v>1.000113606452942</v>
+        <v>1.000078082084656</v>
       </c>
       <c r="F81">
-        <v>20053840</v>
+        <v>9250816</v>
       </c>
       <c r="G81">
-        <v>0.9999917326866564</v>
+        <v>0.9999899369967385</v>
       </c>
       <c r="H81">
-        <v>0.9999865502119064</v>
+        <v>0.9999802798032761</v>
       </c>
       <c r="I81">
-        <v>0.9999373118082683</v>
+        <v>0.9999974767367045</v>
       </c>
       <c r="L81">
-        <v>51.94704659746361</v>
+        <v>54.98669725115813</v>
       </c>
       <c r="M81">
-        <v>51.36255324108665</v>
+        <v>52.80923984271237</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3544,34 +3541,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>1.000043392181396</v>
+        <v>1.000027656555176</v>
       </c>
       <c r="C82">
-        <v>1.000273704528809</v>
+        <v>1.000331044197082</v>
       </c>
       <c r="D82">
-        <v>0.9999995231628418</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="E82">
-        <v>1.000197052955627</v>
+        <v>1.000004649162292</v>
       </c>
       <c r="F82">
-        <v>9115008</v>
+        <v>11083312</v>
       </c>
       <c r="G82">
-        <v>1.000010398165654</v>
+        <v>0.9999912744663343</v>
       </c>
       <c r="H82">
-        <v>1.000008177757263</v>
+        <v>0.9999787479639053</v>
       </c>
       <c r="I82">
-        <v>0.9999555925528208</v>
+        <v>0.9999992231527964</v>
       </c>
       <c r="L82">
-        <v>53.37047920815678</v>
+        <v>50.76763163195039</v>
       </c>
       <c r="M82">
-        <v>52.12280812539844</v>
+        <v>50.50246767941971</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3579,34 +3576,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>1.000185966491699</v>
+        <v>1.000018119812011</v>
       </c>
       <c r="C83">
-        <v>1.000370383262634</v>
+        <v>1.000219821929932</v>
       </c>
       <c r="D83">
-        <v>1.000043272972107</v>
+        <v>0.99986732006073</v>
       </c>
       <c r="E83">
-        <v>1.000257611274719</v>
+        <v>1.000025510787964</v>
       </c>
       <c r="F83">
-        <v>4234016</v>
+        <v>108094208</v>
       </c>
       <c r="G83">
-        <v>1.00003287208466</v>
+        <v>0.9999943868592096</v>
       </c>
       <c r="H83">
-        <v>1.00003570318222</v>
+        <v>0.9999783962965012</v>
       </c>
       <c r="I83">
-        <v>0.9999844332536062</v>
+        <v>1.000000001986822</v>
       </c>
       <c r="L83">
-        <v>54.47155654435213</v>
+        <v>51.94604494974215</v>
       </c>
       <c r="M83">
-        <v>52.7006302412421</v>
+        <v>51.15522969892061</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3614,34 +3611,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>1.00023353099823</v>
+        <v>0.9998446702957152</v>
       </c>
       <c r="C84">
-        <v>1.000427603721619</v>
+        <v>1.000093221664429</v>
       </c>
       <c r="D84">
-        <v>0.9999775290489196</v>
+        <v>0.999771773815155</v>
       </c>
       <c r="E84">
-        <v>1.000319480895996</v>
+        <v>0.9999227523803712</v>
       </c>
       <c r="F84">
-        <v>8323424</v>
+        <v>7517312</v>
       </c>
       <c r="G84">
-        <v>1.000058927431145</v>
+        <v>0.9999878746338606</v>
       </c>
       <c r="H84">
-        <v>1.000055626034737</v>
+        <v>0.9999752789735794</v>
       </c>
       <c r="I84">
-        <v>1.000026353200277</v>
+        <v>0.9999944349129994</v>
       </c>
       <c r="L84">
-        <v>55.67455789582048</v>
+        <v>45.86287525738507</v>
       </c>
       <c r="M84">
-        <v>53.32047121673927</v>
+        <v>47.81059005204631</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3649,34 +3646,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>1.000294327735901</v>
+        <v>0.9999356269836426</v>
       </c>
       <c r="C85">
-        <v>1.000499606132507</v>
+        <v>1.000146269798279</v>
       </c>
       <c r="D85">
-        <v>1.000011682510376</v>
+        <v>0.9996491670608521</v>
       </c>
       <c r="E85">
-        <v>1.000290989875794</v>
+        <v>0.9997544884681702</v>
       </c>
       <c r="F85">
-        <v>9156448</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1.000080024017022</v>
+        <v>0.9999666577097069</v>
       </c>
       <c r="H85">
-        <v>1.000077465176582</v>
+        <v>0.9999601006507873</v>
       </c>
       <c r="I85">
-        <v>1.000037008523941</v>
+        <v>0.999990314245224</v>
       </c>
       <c r="L85">
-        <v>54.92272990003596</v>
+        <v>37.72466393004338</v>
       </c>
       <c r="M85">
-        <v>52.97618405591908</v>
+        <v>42.86803851290161</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3684,34 +3681,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>1.000281095504761</v>
+        <v>0.9997612237930298</v>
       </c>
       <c r="C86">
-        <v>1.000417232513428</v>
+        <v>1.000031352043152</v>
       </c>
       <c r="D86">
-        <v>0.9996867179870604</v>
+        <v>0.9994781613349916</v>
       </c>
       <c r="E86">
-        <v>0.9999392032623292</v>
+        <v>0.999871790409088</v>
       </c>
       <c r="F86">
-        <v>13001920</v>
+        <v>18078752</v>
       </c>
       <c r="G86">
-        <v>1.000067222130232</v>
+        <v>0.9999580334096506</v>
       </c>
       <c r="H86">
-        <v>1.000099021196365</v>
+        <v>0.9999475985765457</v>
       </c>
       <c r="I86">
-        <v>1.000020549694697</v>
+        <v>0.9999903937180837</v>
       </c>
       <c r="L86">
-        <v>46.24762084011819</v>
+        <v>45.3325383031675</v>
       </c>
       <c r="M86">
-        <v>48.78737741457363</v>
+        <v>46.98278350329428</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3719,34 +3716,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.999914824962616</v>
+        <v>0.999863624572754</v>
       </c>
       <c r="C87">
-        <v>1.000212907791138</v>
+        <v>1.000096559524536</v>
       </c>
       <c r="D87">
-        <v>0.9998695254325868</v>
+        <v>0.9996992349624634</v>
       </c>
       <c r="E87">
-        <v>1.000151515007019</v>
+        <v>0.9999399781227112</v>
       </c>
       <c r="F87">
-        <v>2525856</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>1.000074885119031</v>
+        <v>0.9999563920199288</v>
       </c>
       <c r="H87">
-        <v>1.000087010860443</v>
+        <v>0.9999377489089966</v>
       </c>
       <c r="I87">
-        <v>1.000031979878744</v>
+        <v>0.9999838074048361</v>
       </c>
       <c r="L87">
-        <v>51.45386703469031</v>
+        <v>49.37689528589172</v>
       </c>
       <c r="M87">
-        <v>51.29061286051858</v>
+        <v>49.27003523364851</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3754,34 +3751,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1.000107526779175</v>
+        <v>0.999930739402771</v>
       </c>
       <c r="C88">
-        <v>1.000140309333801</v>
+        <v>1.000062465667725</v>
       </c>
       <c r="D88">
-        <v>0.999666392803192</v>
+        <v>0.999639928340912</v>
       </c>
       <c r="E88">
-        <v>0.9999091625213624</v>
+        <v>0.9997157454490662</v>
       </c>
       <c r="F88">
-        <v>11510720</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>1.000059819428333</v>
+        <v>0.9999345150589414</v>
       </c>
       <c r="H88">
-        <v>1.000102233886719</v>
+        <v>0.9999310135841369</v>
       </c>
       <c r="I88">
-        <v>1.000027072429657</v>
+        <v>0.9999696552753449</v>
       </c>
       <c r="L88">
-        <v>45.76196221028417</v>
+        <v>38.76667471244423</v>
       </c>
       <c r="M88">
-        <v>48.38338498011233</v>
+        <v>42.74008496944189</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3789,34 +3786,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.9999297857284546</v>
+        <v>0.9996907114982604</v>
       </c>
       <c r="C89">
-        <v>1.000269293785095</v>
+        <v>0.9999368786811828</v>
       </c>
       <c r="D89">
-        <v>0.9998106956481934</v>
+        <v>0.999630570411682</v>
       </c>
       <c r="E89">
-        <v>1.000241756439209</v>
+        <v>0.9996669292449952</v>
       </c>
       <c r="F89">
-        <v>3340544</v>
+        <v>6677624</v>
       </c>
       <c r="G89">
-        <v>1.000076359156595</v>
+        <v>0.9999101890758554</v>
       </c>
       <c r="H89">
-        <v>1.000132188200951</v>
+        <v>0.999927020072937</v>
       </c>
       <c r="I89">
-        <v>1.000037842988968</v>
+        <v>0.9999560177326202</v>
       </c>
       <c r="L89">
-        <v>53.67392852578596</v>
+        <v>36.82846025591435</v>
       </c>
       <c r="M89">
-        <v>52.37312655984264</v>
+        <v>41.45206393962687</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3824,34 +3821,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>1.00023889541626</v>
+        <v>0.9996799230575562</v>
       </c>
       <c r="C90">
-        <v>1.000471591949463</v>
+        <v>1.000005602836609</v>
       </c>
       <c r="D90">
-        <v>0.9994624257087708</v>
+        <v>0.9995298385620116</v>
       </c>
       <c r="E90">
-        <v>0.9995775818824768</v>
+        <v>0.9998544454574584</v>
       </c>
       <c r="F90">
-        <v>7442016</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>1.000031015768039</v>
+        <v>0.999905121474183</v>
       </c>
       <c r="H90">
-        <v>1.000103580951691</v>
+        <v>0.9999256730079651</v>
       </c>
       <c r="I90">
-        <v>1.00000573794047</v>
+        <v>0.9999502638975779</v>
       </c>
       <c r="L90">
-        <v>40.42568501558703</v>
+        <v>48.05220402601132</v>
       </c>
       <c r="M90">
-        <v>44.90808253201155</v>
+        <v>47.94192205194933</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3859,34 +3856,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.9996060132980348</v>
+        <v>0.9998555183410645</v>
       </c>
       <c r="C91">
-        <v>0.9999845027923584</v>
+        <v>1.000087738037109</v>
       </c>
       <c r="D91">
-        <v>0.9993749260902404</v>
+        <v>0.9996244311332704</v>
       </c>
       <c r="E91">
-        <v>0.9999199509620668</v>
+        <v>0.9998626708984376</v>
       </c>
       <c r="F91">
-        <v>58664448</v>
+        <v>6972336</v>
       </c>
       <c r="G91">
-        <v>1.000020918967496</v>
+        <v>0.9999012623309333</v>
       </c>
       <c r="H91">
-        <v>1.000064346194267</v>
+        <v>0.9999148607254028</v>
       </c>
       <c r="I91">
-        <v>1.000017843643824</v>
+        <v>0.9999408185482025</v>
       </c>
       <c r="L91">
-        <v>47.88535365895042</v>
+        <v>48.50371166179135</v>
       </c>
       <c r="M91">
-        <v>48.94766489802726</v>
+        <v>48.21309640227292</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3894,34 +3891,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.9999175667762756</v>
+        <v>0.999889075756073</v>
       </c>
       <c r="C92">
-        <v>1.000132322311401</v>
+        <v>1.000016808509827</v>
       </c>
       <c r="D92">
-        <v>0.9998472929000854</v>
+        <v>0.9992501139640808</v>
       </c>
       <c r="E92">
-        <v>0.9999395608901978</v>
+        <v>0.9995495676994324</v>
       </c>
       <c r="F92">
-        <v>6448032</v>
+        <v>16317544</v>
       </c>
       <c r="G92">
-        <v>1.00001352277865</v>
+        <v>0.999869290091706</v>
       </c>
       <c r="H92">
-        <v>1.000067481398582</v>
+        <v>0.9998963862657547</v>
       </c>
       <c r="I92">
-        <v>1.000023678938548</v>
+        <v>0.99992462793986</v>
       </c>
       <c r="L92">
-        <v>48.30247672481585</v>
+        <v>35.34735294211172</v>
       </c>
       <c r="M92">
-        <v>49.17752865951665</v>
+        <v>39.72939413054713</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3929,34 +3926,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.9999364614486694</v>
+        <v>0.9995351433753968</v>
       </c>
       <c r="C93">
-        <v>1.000080227851868</v>
+        <v>1.000120162963867</v>
       </c>
       <c r="D93">
-        <v>0.9998421669006348</v>
+        <v>0.9993372559547424</v>
       </c>
       <c r="E93">
-        <v>0.9999522566795348</v>
+        <v>0.9999191164970398</v>
       </c>
       <c r="F93">
-        <v>8846048</v>
+        <v>26206080</v>
       </c>
       <c r="G93">
-        <v>1.000007953133276</v>
+        <v>0.9998738197649182</v>
       </c>
       <c r="H93">
-        <v>1.000015103816986</v>
+        <v>0.9998944431543351</v>
       </c>
       <c r="I93">
-        <v>1.000031850735347</v>
+        <v>0.9999208470185598</v>
       </c>
       <c r="L93">
-        <v>48.60210717952332</v>
+        <v>52.4669409460056</v>
       </c>
       <c r="M93">
-        <v>49.33657286510348</v>
+        <v>50.74564884787843</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3964,34 +3961,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.9999430775642396</v>
+        <v>0.9999030828475952</v>
       </c>
       <c r="C94">
-        <v>1.000118851661682</v>
+        <v>1.000122666358948</v>
       </c>
       <c r="D94">
-        <v>0.9998217821121216</v>
+        <v>0.9997735023498536</v>
       </c>
       <c r="E94">
-        <v>1.000002145767212</v>
+        <v>0.9999416470527648</v>
       </c>
       <c r="F94">
-        <v>482720</v>
+        <v>10185968</v>
       </c>
       <c r="G94">
-        <v>1.000007425190907</v>
+        <v>0.9998799858819951</v>
       </c>
       <c r="H94">
-        <v>1.000021132826805</v>
+        <v>0.9998915255069732</v>
       </c>
       <c r="I94">
-        <v>1.000034554799398</v>
+        <v>0.9999193986256917</v>
       </c>
       <c r="L94">
-        <v>49.8861294022224</v>
+        <v>53.31482913085305</v>
       </c>
       <c r="M94">
-        <v>49.99874893259077</v>
+        <v>51.32973500882567</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3999,34 +3996,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>1.000001192092896</v>
+        <v>0.999966561794281</v>
       </c>
       <c r="C95">
-        <v>1.000107526779175</v>
+        <v>1.000159025192261</v>
       </c>
       <c r="D95">
-        <v>0.9997657537460328</v>
+        <v>0.9996355772018432</v>
       </c>
       <c r="E95">
-        <v>1.000089764595032</v>
+        <v>0.9996355772018432</v>
       </c>
       <c r="F95">
-        <v>4165440</v>
+        <v>6339872</v>
       </c>
       <c r="G95">
-        <v>1.000014910591282</v>
+        <v>0.9998577669110722</v>
       </c>
       <c r="H95">
-        <v>1.00004058778286</v>
+        <v>0.9998747348785401</v>
       </c>
       <c r="I95">
-        <v>1.000042406717936</v>
+        <v>0.9999053160349528</v>
       </c>
       <c r="L95">
-        <v>52.24337716653499</v>
+        <v>41.89403753436488</v>
       </c>
       <c r="M95">
-        <v>51.20498126462356</v>
+        <v>43.74122387062599</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4034,594 +4031,597 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>1.000097393989563</v>
+        <v>0.9997796416282654</v>
       </c>
       <c r="C96">
-        <v>1.000246644020081</v>
+        <v>1.000110983848572</v>
       </c>
       <c r="D96">
-        <v>0.9997835159301758</v>
+        <v>0.999601185321808</v>
       </c>
       <c r="E96">
-        <v>0.9998781085014344</v>
+        <v>0.9999263882637024</v>
       </c>
       <c r="F96">
-        <v>146496</v>
+        <v>9297360</v>
       </c>
       <c r="G96">
-        <v>1.000002474037659</v>
+        <v>0.9998640052158567</v>
       </c>
       <c r="H96">
-        <v>1.00004249215126</v>
+        <v>0.9998797029256821</v>
       </c>
       <c r="I96">
-        <v>1.000054740905762</v>
+        <v>0.9998988012472788</v>
       </c>
       <c r="L96">
-        <v>46.32202752876555</v>
+        <v>52.7200411451355</v>
       </c>
       <c r="M96">
-        <v>48.18123042575485</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>51.1334358425843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.9998852014541626</v>
+        <v>1.000004887580872</v>
       </c>
       <c r="C97">
-        <v>0.9999787211418152</v>
+        <v>1.00016975402832</v>
       </c>
       <c r="D97">
-        <v>0.9995733499526978</v>
+        <v>0.9995906949043274</v>
       </c>
       <c r="E97">
-        <v>0.9998694062232972</v>
+        <v>0.999950349330902</v>
       </c>
       <c r="F97">
-        <v>17116096</v>
+        <v>12006704</v>
       </c>
       <c r="G97">
-        <v>0.9999903769636262</v>
+        <v>0.9998718546808608</v>
       </c>
       <c r="H97">
-        <v>1.000032910704613</v>
+        <v>0.9998838096857071</v>
       </c>
       <c r="I97">
-        <v>1.000037330389023</v>
+        <v>0.9998925805091858</v>
       </c>
       <c r="L97">
-        <v>46.08044759537928</v>
+        <v>53.52270929367602</v>
       </c>
       <c r="M97">
-        <v>48.05557985112441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>51.69660864544556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.999846875667572</v>
+        <v>0.9998516440391541</v>
       </c>
       <c r="C98">
-        <v>1.000235319137573</v>
+        <v>1.000205516815186</v>
       </c>
       <c r="D98">
-        <v>0.999573528766632</v>
+        <v>0.9997090101242064</v>
       </c>
       <c r="E98">
-        <v>1.000137567520142</v>
+        <v>1.000115394592285</v>
       </c>
       <c r="F98">
-        <v>35738272</v>
+        <v>16437264</v>
       </c>
       <c r="G98">
-        <v>1.000003757923309</v>
+        <v>0.9998939946728085</v>
       </c>
       <c r="H98">
-        <v>1.000038102269173</v>
+        <v>0.9999007970094681</v>
       </c>
       <c r="I98">
-        <v>1.000055092573166</v>
+        <v>0.99990141193072</v>
       </c>
       <c r="L98">
-        <v>54.33626997069363</v>
+        <v>58.92618724595581</v>
       </c>
       <c r="M98">
-        <v>52.19296738083615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>55.50081052267029</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>1.000119805335998</v>
+        <v>1.000041127204895</v>
       </c>
       <c r="C99">
-        <v>1.000274181365967</v>
+        <v>1.000276207923889</v>
       </c>
       <c r="D99">
-        <v>1.000020146369934</v>
+        <v>0.9999272227287292</v>
       </c>
       <c r="E99">
-        <v>1.000140309333801</v>
+        <v>1.000130534172058</v>
       </c>
       <c r="F99">
-        <v>2923808</v>
+        <v>3481152</v>
       </c>
       <c r="G99">
-        <v>1.000016171687899</v>
+        <v>0.9999154982636493</v>
       </c>
       <c r="H99">
-        <v>1.000043645501137</v>
+        <v>0.9998997300863266</v>
       </c>
       <c r="I99">
-        <v>1.000071680545807</v>
+        <v>0.9999142030874888</v>
       </c>
       <c r="L99">
-        <v>54.41655149330386</v>
+        <v>59.41313389549786</v>
       </c>
       <c r="M99">
-        <v>52.23485878197836</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>55.84434294210451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>1.000126123428345</v>
+        <v>1.000116229057312</v>
       </c>
       <c r="C100">
-        <v>1.000213265419006</v>
+        <v>1.000254988670349</v>
       </c>
       <c r="D100">
-        <v>0.9999052286148072</v>
+        <v>0.9998539686203004</v>
       </c>
       <c r="E100">
-        <v>1.000076055526733</v>
+        <v>1.000073671340942</v>
       </c>
       <c r="F100">
-        <v>80327104</v>
+        <v>84802064</v>
       </c>
       <c r="G100">
-        <v>1.000021615673248</v>
+        <v>0.9999298776343123</v>
       </c>
       <c r="H100">
-        <v>1.000050154328346</v>
+        <v>0.999896964430809</v>
       </c>
       <c r="I100">
-        <v>1.000069224834442</v>
+        <v>0.9999206125736236</v>
       </c>
       <c r="L100">
-        <v>52.00602807747357</v>
+        <v>56.57888535983234</v>
       </c>
       <c r="M100">
-        <v>51.10469977034308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>54.15335565704524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>1.000077724456787</v>
+        <v>1.000060796737671</v>
       </c>
       <c r="C101">
-        <v>1.000136375427246</v>
+        <v>1.000199317932129</v>
       </c>
       <c r="D101">
-        <v>0.999846339225769</v>
+        <v>0.9998881816864014</v>
       </c>
       <c r="E101">
-        <v>1.000027060508728</v>
+        <v>1.000093817710876</v>
       </c>
       <c r="F101">
-        <v>4701760</v>
+        <v>10383040</v>
       </c>
       <c r="G101">
-        <v>1.000022110658292</v>
+        <v>0.9999447812776362</v>
       </c>
       <c r="H101">
-        <v>1.000045827031136</v>
+        <v>0.9998977512121201</v>
       </c>
       <c r="I101">
-        <v>1.000046638647715</v>
+        <v>0.9999211092789968</v>
       </c>
       <c r="L101">
-        <v>50.10213670739551</v>
+        <v>57.38909439563763</v>
       </c>
       <c r="M101">
-        <v>50.21256740508382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>54.67699570679891</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>1.000034928321838</v>
+        <v>1.000094294548035</v>
       </c>
       <c r="C102">
-        <v>1.000167608261108</v>
+        <v>1.000210881233215</v>
       </c>
       <c r="D102">
-        <v>0.9998052716255188</v>
+        <v>0.9998599290847778</v>
       </c>
       <c r="E102">
-        <v>1.0001460313797</v>
+        <v>0.9999487996101381</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1.00003337617842</v>
+        <v>0.9999451465805909</v>
       </c>
       <c r="H102">
-        <v>1.000043275952339</v>
+        <v>0.9998949587345123</v>
       </c>
       <c r="I102">
-        <v>1.000055611133575</v>
+        <v>0.9999221007029215</v>
       </c>
       <c r="L102">
-        <v>54.638588318146</v>
+        <v>49.85572773745513</v>
       </c>
       <c r="M102">
-        <v>52.38614525393257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>50.22970027536203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>1.00014078617096</v>
+        <v>0.9999501705169678</v>
       </c>
       <c r="C103">
-        <v>1.000207543373108</v>
+        <v>1.000240445137024</v>
       </c>
       <c r="D103">
-        <v>0.9998968243598938</v>
+        <v>0.9998779296875</v>
       </c>
       <c r="E103">
-        <v>1.000035285949707</v>
+        <v>0.9999986886978148</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2585152</v>
       </c>
       <c r="G103">
-        <v>1.000033549793991</v>
+        <v>0.9999500140457931</v>
       </c>
       <c r="H103">
-        <v>1.000032159686089</v>
+        <v>0.9998936176300048</v>
       </c>
       <c r="I103">
-        <v>1.000023460388184</v>
+        <v>0.999923457702001</v>
       </c>
       <c r="L103">
-        <v>49.88879169380771</v>
+        <v>52.28007781455251</v>
       </c>
       <c r="M103">
-        <v>50.1896053136361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>51.6856146303809</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>1.00003981590271</v>
+        <v>1.000007033348083</v>
       </c>
       <c r="C104">
-        <v>1.000121355056763</v>
+        <v>1.001061320304871</v>
       </c>
       <c r="D104">
-        <v>0.9998864531517028</v>
+        <v>1.000000596046448</v>
       </c>
       <c r="E104">
-        <v>1.000032544136047</v>
+        <v>1.000991702079773</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1.000033458370542</v>
+        <v>1.000044712957973</v>
       </c>
       <c r="H104">
-        <v>1.000017812848091</v>
+        <v>0.999947065114975</v>
       </c>
       <c r="I104">
-        <v>1.000028493007024</v>
+        <v>0.9999565144379934</v>
       </c>
       <c r="L104">
-        <v>49.76829006744013</v>
+        <v>77.08659221559797</v>
       </c>
       <c r="M104">
-        <v>50.13355887743305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>70.3054686004342</v>
+      </c>
+      <c r="O104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>1.000005483627319</v>
+        <v>1.000996589660644</v>
       </c>
       <c r="C105">
-        <v>1.000102877616882</v>
+        <v>1.001295566558838</v>
       </c>
       <c r="D105">
-        <v>0.9998463988304138</v>
+        <v>1.000001311302185</v>
       </c>
       <c r="E105">
-        <v>0.9999850988388062</v>
+        <v>1.000039577484131</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1.000029062049475</v>
+        <v>1.000044246096714</v>
       </c>
       <c r="H105">
-        <v>1.000002518296242</v>
+        <v>0.9999613195657731</v>
       </c>
       <c r="I105">
-        <v>1.000037974119186</v>
+        <v>0.9999587873617808</v>
       </c>
       <c r="L105">
-        <v>47.53320144755447</v>
+        <v>49.39122934511417</v>
       </c>
       <c r="M105">
-        <v>49.11154282050635</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>50.29200920767199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.999980926513672</v>
+        <v>1.000020146369934</v>
       </c>
       <c r="C106">
-        <v>1.000191807746887</v>
+        <v>1.000336647033691</v>
       </c>
       <c r="D106">
-        <v>0.9999156594276428</v>
+        <v>0.9999181628227234</v>
       </c>
       <c r="E106">
-        <v>1.000058054924011</v>
+        <v>1.000102519989014</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1.000031697765342</v>
+        <v>1.000049543723287</v>
       </c>
       <c r="H106">
-        <v>1.000008460879326</v>
+        <v>0.9999728560447693</v>
       </c>
       <c r="I106">
-        <v>1.000045241912206</v>
+        <v>0.9999679704507192</v>
       </c>
       <c r="L106">
-        <v>51.31548228453621</v>
+        <v>50.70828728782666</v>
       </c>
       <c r="M106">
-        <v>50.77335691494334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>51.27938113382763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>1.000047445297241</v>
+        <v>1.000117897987366</v>
       </c>
       <c r="C107">
-        <v>1.000238418579102</v>
+        <v>1.000231385231018</v>
       </c>
       <c r="D107">
-        <v>0.9999042153358459</v>
+        <v>0.9999305605888368</v>
       </c>
       <c r="E107">
-        <v>1.000121831893921</v>
+        <v>0.9999591708183287</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>559616</v>
       </c>
       <c r="G107">
-        <v>1.000039891777031</v>
+        <v>1.000041328004655</v>
       </c>
       <c r="H107">
-        <v>1.000006976723671</v>
+        <v>0.9999738156795501</v>
       </c>
       <c r="I107">
-        <v>1.000047268470128</v>
+        <v>0.9999710023403168</v>
       </c>
       <c r="L107">
-        <v>54.53853574647573</v>
+        <v>47.53851277094696</v>
       </c>
       <c r="M107">
-        <v>52.24160656493084</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>48.89720197983913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>1.000101566314697</v>
+        <v>0.999974489212036</v>
       </c>
       <c r="C108">
-        <v>1.000209450721741</v>
+        <v>1.000251889228821</v>
       </c>
       <c r="D108">
-        <v>0.9998732209205629</v>
+        <v>0.999974489212036</v>
       </c>
       <c r="E108">
-        <v>1.000136971473694</v>
+        <v>1.000078558921814</v>
       </c>
       <c r="F108">
-        <v>1855872</v>
+        <v>7631424</v>
       </c>
       <c r="G108">
-        <v>1.000048717204</v>
+        <v>1.000044712633487</v>
       </c>
       <c r="H108">
-        <v>1.000018367171287</v>
+        <v>0.9999919563531876</v>
       </c>
       <c r="I108">
-        <v>1.000050709644953</v>
+        <v>0.9999810993671417</v>
       </c>
       <c r="L108">
-        <v>55.32832520647568</v>
+        <v>50.44112649656363</v>
       </c>
       <c r="M108">
-        <v>52.60300404839306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>50.94128425203493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>1.000098824501038</v>
+        <v>1.000074028968811</v>
       </c>
       <c r="C109">
-        <v>1.000119686126709</v>
+        <v>1.00015389919281</v>
       </c>
       <c r="D109">
-        <v>0.9997071027755736</v>
+        <v>0.9997667074203492</v>
       </c>
       <c r="E109">
-        <v>0.9998504519462584</v>
+        <v>0.9999735951423644</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>8374600</v>
       </c>
       <c r="G109">
-        <v>1.00003069308966</v>
+        <v>1.000038247407021</v>
       </c>
       <c r="H109">
-        <v>0.99999880194664</v>
+        <v>1.000007289648056</v>
       </c>
       <c r="I109">
-        <v>1.000044743220011</v>
+        <v>0.9999751567840576</v>
       </c>
       <c r="L109">
-        <v>40.38917675141538</v>
+        <v>47.82399566476285</v>
       </c>
       <c r="M109">
-        <v>45.57422633529798</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>49.08244031476876</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.9998602867126464</v>
+        <v>0.9999475479125975</v>
       </c>
       <c r="C110">
-        <v>1.000041604042053</v>
+        <v>1.000122547149658</v>
       </c>
       <c r="D110">
-        <v>0.9996152520179749</v>
+        <v>0.9998924136161804</v>
       </c>
       <c r="E110">
-        <v>0.999746799468994</v>
+        <v>1.000026822090149</v>
       </c>
       <c r="F110">
-        <v>11300160</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>1.00000488457869</v>
+        <v>1.000037208741851</v>
       </c>
       <c r="H110">
-        <v>1.000007262825966</v>
+        <v>1.00001590847969</v>
       </c>
       <c r="I110">
-        <v>1.000038107236226</v>
+        <v>0.9999717513720194</v>
       </c>
       <c r="L110">
-        <v>36.39026749640605</v>
+        <v>49.32398354697145</v>
       </c>
       <c r="M110">
-        <v>43.319159454251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>50.07726868983103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.999705135822296</v>
+        <v>1.000017166137695</v>
       </c>
       <c r="C111">
-        <v>1.000093936920166</v>
+        <v>1.000131964683533</v>
       </c>
       <c r="D111">
-        <v>0.999705135822296</v>
+        <v>0.9998801946640016</v>
       </c>
       <c r="E111">
-        <v>0.999881386756897</v>
+        <v>1.000034928321838</v>
       </c>
       <c r="F111">
-        <v>8828736</v>
+        <v>21873704</v>
       </c>
       <c r="G111">
-        <v>0.9999936575039816</v>
+        <v>1.000037001430941</v>
       </c>
       <c r="H111">
-        <v>1.000005334615707</v>
+        <v>1.000024521350861</v>
       </c>
       <c r="I111">
-        <v>1.000030366579691</v>
+        <v>0.9999703129132589</v>
       </c>
       <c r="L111">
-        <v>44.42761040605684</v>
+        <v>49.57236860953162</v>
       </c>
       <c r="M111">
-        <v>46.98716663630331</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>50.23673230517628</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.99989914894104</v>
+        <v>1.000063300132752</v>
       </c>
       <c r="C112">
-        <v>1.000155091285706</v>
+        <v>1.000207185745239</v>
       </c>
       <c r="D112">
-        <v>0.9998689293861388</v>
+        <v>0.9996732473373412</v>
       </c>
       <c r="E112">
-        <v>1.000078916549683</v>
+        <v>0.9997302889823914</v>
       </c>
       <c r="F112">
-        <v>6930656</v>
+        <v>18015992</v>
       </c>
       <c r="G112">
-        <v>1.000001408326318</v>
+        <v>1.000009118481073</v>
       </c>
       <c r="H112">
-        <v>1.000012302398682</v>
+        <v>1.000033557415009</v>
       </c>
       <c r="I112">
-        <v>1.000026428699493</v>
+        <v>0.9999611675739288</v>
       </c>
       <c r="L112">
-        <v>54.02022249851488</v>
+        <v>41.06306752785816</v>
       </c>
       <c r="M112">
-        <v>51.90636924102784</v>
+        <v>44.48582258778076</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4629,34 +4629,34 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>1.000025868415832</v>
+        <v>0.999739110469818</v>
       </c>
       <c r="C113">
-        <v>1.000236868858337</v>
+        <v>0.9999374151229858</v>
       </c>
       <c r="D113">
-        <v>0.999633252620697</v>
+        <v>0.9995962381362916</v>
       </c>
       <c r="E113">
-        <v>0.999919056892395</v>
+        <v>0.99985533952713</v>
       </c>
       <c r="F113">
-        <v>16767744</v>
+        <v>16241632</v>
       </c>
       <c r="G113">
-        <v>0.9999939218323249</v>
+        <v>0.9999951385761687</v>
       </c>
       <c r="H113">
-        <v>1.000010642409325</v>
+        <v>1.000030368566513</v>
       </c>
       <c r="I113">
-        <v>1.000015143553416</v>
+        <v>0.9999554951985677</v>
       </c>
       <c r="L113">
-        <v>46.68353037944503</v>
+        <v>45.39183196237179</v>
       </c>
       <c r="M113">
-        <v>48.02262566428559</v>
+        <v>47.15983617030315</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4664,34 +4664,34 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.9998992681503296</v>
+        <v>0.9998637437820436</v>
       </c>
       <c r="C114">
-        <v>1.000201344490051</v>
+        <v>1.000036478042602</v>
       </c>
       <c r="D114">
-        <v>0.999792456626892</v>
+        <v>0.9997202157974244</v>
       </c>
       <c r="E114">
-        <v>0.9999579787254332</v>
+        <v>0.9998432993888856</v>
       </c>
       <c r="F114">
-        <v>117645120</v>
+        <v>5548128</v>
       </c>
       <c r="G114">
-        <v>0.9999906542771529</v>
+        <v>0.9999813350136885</v>
       </c>
       <c r="H114">
-        <v>1.000008434057236</v>
+        <v>1.000025451183319</v>
       </c>
       <c r="I114">
-        <v>1.000003093481064</v>
+        <v>0.9999528467655182</v>
       </c>
       <c r="L114">
-        <v>48.59580142248989</v>
+        <v>45.03356139920292</v>
       </c>
       <c r="M114">
-        <v>49.02273056714407</v>
+        <v>46.92546786468783</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4699,34 +4699,34 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.9999340772628784</v>
+        <v>0.9998126626014709</v>
       </c>
       <c r="C115">
-        <v>1.000218749046326</v>
+        <v>1.000113725662231</v>
       </c>
       <c r="D115">
-        <v>0.9997954964637756</v>
+        <v>0.9997382164001464</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0.9998544454574584</v>
       </c>
       <c r="F115">
-        <v>14637792</v>
+        <v>15892752</v>
       </c>
       <c r="G115">
-        <v>0.9999915038883208</v>
+        <v>0.9999697995994857</v>
       </c>
       <c r="H115">
-        <v>1.000003945827484</v>
+        <v>1.0000363945961</v>
       </c>
       <c r="I115">
-        <v>0.9999933938185374</v>
+        <v>0.9999561786651612</v>
       </c>
       <c r="L115">
-        <v>50.74163726299893</v>
+        <v>45.48170627027921</v>
       </c>
       <c r="M115">
-        <v>50.13820531815925</v>
+        <v>47.18713024026822</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4734,34 +4734,34 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.9999420642852784</v>
+        <v>0.99985933303833</v>
       </c>
       <c r="C116">
-        <v>1.000112295150757</v>
+        <v>1.000082969665527</v>
       </c>
       <c r="D116">
-        <v>0.9996998310089112</v>
+        <v>0.999640166759491</v>
       </c>
       <c r="E116">
-        <v>0.9999713897705078</v>
+        <v>0.9998068809509276</v>
       </c>
       <c r="F116">
-        <v>1579072</v>
+        <v>94900976</v>
       </c>
       <c r="G116">
-        <v>0.999989675332156</v>
+        <v>0.9999549888132531</v>
       </c>
       <c r="H116">
-        <v>1.000008609890938</v>
+        <v>1.000030419230461</v>
       </c>
       <c r="I116">
-        <v>0.9999944667021433</v>
+        <v>0.9999540150165558</v>
       </c>
       <c r="L116">
-        <v>49.16947237409896</v>
+        <v>43.76855069188869</v>
       </c>
       <c r="M116">
-        <v>49.34647708481904</v>
+        <v>46.14170092626337</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4769,34 +4769,34 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.9999999403953552</v>
+        <v>0.9997930526733398</v>
       </c>
       <c r="C117">
-        <v>1.000026941299438</v>
+        <v>1.000211715698242</v>
       </c>
       <c r="D117">
-        <v>0.999681830406189</v>
+        <v>0.9996781945228576</v>
       </c>
       <c r="E117">
-        <v>0.9998270273208618</v>
+        <v>0.9997951984405518</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>28770576</v>
       </c>
       <c r="G117">
-        <v>0.9999748891493111</v>
+        <v>0.9999404624157348</v>
       </c>
       <c r="H117">
-        <v>1.000006490945816</v>
+        <v>1.000022661685944</v>
       </c>
       <c r="I117">
-        <v>0.9999836504459381</v>
+        <v>0.9999491890271505</v>
       </c>
       <c r="L117">
-        <v>41.81500546279413</v>
+        <v>43.31770163687127</v>
       </c>
       <c r="M117">
-        <v>45.44680334700382</v>
+        <v>45.87287882775982</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4804,34 +4804,34 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.999823272228241</v>
+        <v>0.9997708201408386</v>
       </c>
       <c r="C118">
-        <v>1.000022649765015</v>
+        <v>1.000026941299438</v>
       </c>
       <c r="D118">
-        <v>0.9994967579841614</v>
+        <v>0.9996273517608644</v>
       </c>
       <c r="E118">
-        <v>0.9998682141304016</v>
+        <v>0.9999353885650636</v>
       </c>
       <c r="F118">
-        <v>1677536</v>
+        <v>36908000</v>
       </c>
       <c r="G118">
-        <v>0.9999651914203194</v>
+        <v>0.9999400011565829</v>
       </c>
       <c r="H118">
-        <v>0.999993023276329</v>
+        <v>1.000013661384582</v>
       </c>
       <c r="I118">
-        <v>0.9999822854995728</v>
+        <v>0.9999565104643504</v>
       </c>
       <c r="L118">
-        <v>44.48038188460043</v>
+        <v>50.23766110562423</v>
       </c>
       <c r="M118">
-        <v>46.73999215856328</v>
+        <v>49.6627689480755</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4839,34 +4839,34 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.9998695254325868</v>
+        <v>0.9999249577522278</v>
       </c>
       <c r="C119">
-        <v>1.000085949897766</v>
+        <v>1.000194430351257</v>
       </c>
       <c r="D119">
-        <v>0.9996318817138672</v>
+        <v>0.9997199773788452</v>
       </c>
       <c r="E119">
-        <v>0.9997756481170654</v>
+        <v>0.9998931884765624</v>
       </c>
       <c r="F119">
-        <v>3975456</v>
+        <v>8635360</v>
       </c>
       <c r="G119">
-        <v>0.9999479602109327</v>
+        <v>0.9999357454583991</v>
       </c>
       <c r="H119">
-        <v>0.9999747902154923</v>
+        <v>1.000001794099808</v>
       </c>
       <c r="I119">
-        <v>0.9999667485555013</v>
+        <v>0.999964052438736</v>
       </c>
       <c r="L119">
-        <v>39.86330804491322</v>
+        <v>48.2431334182949</v>
       </c>
       <c r="M119">
-        <v>44.20381504413783</v>
+        <v>48.56053005365586</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4874,34 +4874,34 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.9998419880867004</v>
+        <v>0.999894678592682</v>
       </c>
       <c r="C120">
-        <v>1.000176072120667</v>
+        <v>1.000125169754028</v>
       </c>
       <c r="D120">
-        <v>0.9997297525405884</v>
+        <v>0.9996268749237061</v>
       </c>
       <c r="E120">
-        <v>1.000151872634888</v>
+        <v>0.9997801780700684</v>
       </c>
       <c r="F120">
-        <v>818848</v>
+        <v>33640896</v>
       </c>
       <c r="G120">
-        <v>0.9999664977040196</v>
+        <v>0.9999216029685508</v>
       </c>
       <c r="H120">
-        <v>0.9999785810709</v>
+        <v>0.9999871194362641</v>
       </c>
       <c r="I120">
-        <v>0.9999858915805817</v>
+        <v>0.9999615768591563</v>
       </c>
       <c r="L120">
-        <v>59.21886517893429</v>
+        <v>43.08922244486779</v>
       </c>
       <c r="M120">
-        <v>54.91232416596488</v>
+        <v>45.63925084672089</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4909,34 +4909,34 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>1.000158429145813</v>
+        <v>0.9998188018798828</v>
       </c>
       <c r="C121">
-        <v>1.000331521034241</v>
+        <v>1.000161647796631</v>
       </c>
       <c r="D121">
-        <v>0.999924659729004</v>
+        <v>0.999606728553772</v>
       </c>
       <c r="E121">
-        <v>1.000128984451294</v>
+        <v>0.9999719262123108</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>13521088</v>
       </c>
       <c r="G121">
-        <v>0.999981269226499</v>
+        <v>0.9999261778088926</v>
       </c>
       <c r="H121">
-        <v>0.9999836772680283</v>
+        <v>0.9999810248613358</v>
       </c>
       <c r="I121">
-        <v>0.9999928593635559</v>
+        <v>0.9999652187029521</v>
       </c>
       <c r="L121">
-        <v>57.9424851021105</v>
+        <v>52.72889735343892</v>
       </c>
       <c r="M121">
-        <v>54.23043078073427</v>
+        <v>51.02293771631978</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4944,34 +4944,34 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>1.000131011009216</v>
+        <v>0.9999549984931946</v>
       </c>
       <c r="C122">
-        <v>1.000288248062134</v>
+        <v>1.000168800354004</v>
       </c>
       <c r="D122">
-        <v>1.000010371208191</v>
+        <v>0.9996892213821412</v>
       </c>
       <c r="E122">
-        <v>1.000078082084656</v>
+        <v>0.9998459219932556</v>
       </c>
       <c r="F122">
-        <v>9250816</v>
+        <v>8784864</v>
       </c>
       <c r="G122">
-        <v>0.9999900703954223</v>
+        <v>0.9999188818256529</v>
       </c>
       <c r="H122">
-        <v>0.9999802798032761</v>
+        <v>0.9999758809804916</v>
       </c>
       <c r="I122">
-        <v>0.9999974767367045</v>
+        <v>0.9999750971794128</v>
       </c>
       <c r="L122">
-        <v>54.97774888977442</v>
+        <v>46.86095968982786</v>
       </c>
       <c r="M122">
-        <v>52.66413794568166</v>
+        <v>47.68114404950185</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4979,34 +4979,34 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>1.000027656555176</v>
+        <v>0.99983412027359</v>
       </c>
       <c r="C123">
-        <v>1.000331044197082</v>
+        <v>1.000397443771362</v>
       </c>
       <c r="D123">
-        <v>0.9998517632484436</v>
+        <v>0.9998300075531006</v>
       </c>
       <c r="E123">
-        <v>1.000004649162292</v>
+        <v>1.000168561935425</v>
       </c>
       <c r="F123">
-        <v>11083312</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>0.999991395737865</v>
+        <v>0.9999415800174503</v>
       </c>
       <c r="H123">
-        <v>0.9999787479639053</v>
+        <v>0.9999843746423721</v>
       </c>
       <c r="I123">
-        <v>0.9999992231527964</v>
+        <v>0.999983412027359</v>
       </c>
       <c r="L123">
-        <v>50.76237381922981</v>
+        <v>59.76051597489403</v>
       </c>
       <c r="M123">
-        <v>50.40251782422109</v>
+        <v>55.68474070070209</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5014,34 +5014,34 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>1.000018119812011</v>
+        <v>1.000065684318542</v>
       </c>
       <c r="C124">
-        <v>1.000219821929932</v>
+        <v>1.000175476074219</v>
       </c>
       <c r="D124">
-        <v>0.99986732006073</v>
+        <v>0.9998770356178284</v>
       </c>
       <c r="E124">
-        <v>1.000025510787964</v>
+        <v>1.000007748603821</v>
       </c>
       <c r="F124">
-        <v>108094208</v>
+        <v>143824</v>
       </c>
       <c r="G124">
-        <v>0.9999944971060557</v>
+        <v>0.999947595343484</v>
       </c>
       <c r="H124">
-        <v>0.9999783962965012</v>
+        <v>0.9999351769685745</v>
       </c>
       <c r="I124">
-        <v>1.000000001986822</v>
+        <v>0.9999856154123942</v>
       </c>
       <c r="L124">
-        <v>51.94009381087415</v>
+        <v>52.6005959644738</v>
       </c>
       <c r="M124">
-        <v>51.04570518067123</v>
+        <v>51.45923328826404</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5049,34 +5049,34 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.9998446702957152</v>
+        <v>1.000014781951904</v>
       </c>
       <c r="C125">
-        <v>1.000093221664429</v>
+        <v>1.000308036804199</v>
       </c>
       <c r="D125">
-        <v>0.999771773815155</v>
+        <v>0.9998288154602052</v>
       </c>
       <c r="E125">
-        <v>0.9999227523803712</v>
+        <v>1.000016450881958</v>
       </c>
       <c r="F125">
-        <v>7517312</v>
+        <v>5179376</v>
       </c>
       <c r="G125">
-        <v>0.9999879748582662</v>
+        <v>0.9999538549378907</v>
       </c>
       <c r="H125">
-        <v>0.9999752789735794</v>
+        <v>0.9999340206384659</v>
       </c>
       <c r="I125">
-        <v>0.9999944349129994</v>
+        <v>0.9999983112017313</v>
       </c>
       <c r="L125">
-        <v>45.86135402488287</v>
+        <v>52.94381704994543</v>
       </c>
       <c r="M125">
-        <v>47.76023008561615</v>
+        <v>51.67294513114546</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5084,34 +5084,34 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.9999356269836426</v>
+        <v>1.000017642974854</v>
       </c>
       <c r="C126">
-        <v>1.000146269798279</v>
+        <v>1.00038492679596</v>
       </c>
       <c r="D126">
-        <v>0.9996491670608521</v>
+        <v>0.9997997283935548</v>
       </c>
       <c r="E126">
-        <v>0.9997544884681702</v>
+        <v>1.000198721885681</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>0.9999667488228029</v>
+        <v>0.9999761155695079</v>
       </c>
       <c r="H126">
-        <v>0.9999601006507873</v>
+        <v>0.9999388307332993</v>
       </c>
       <c r="I126">
-        <v>0.999990314245224</v>
+        <v>1.000007388989131</v>
       </c>
       <c r="L126">
-        <v>37.72752132338071</v>
+        <v>59.80245336618738</v>
       </c>
       <c r="M126">
-        <v>42.8919751045275</v>
+        <v>56.03872236566559</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5119,34 +5119,34 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.9997612237930298</v>
+        <v>1.000213980674744</v>
       </c>
       <c r="C127">
-        <v>1.000031352043152</v>
+        <v>1.0003422498703</v>
       </c>
       <c r="D127">
-        <v>0.9994781613349916</v>
+        <v>0.9999669790267944</v>
       </c>
       <c r="E127">
-        <v>0.999871790409088</v>
+        <v>1.000179886817932</v>
       </c>
       <c r="F127">
-        <v>18078752</v>
+        <v>924512</v>
       </c>
       <c r="G127">
-        <v>0.9999581162397378</v>
+        <v>0.9999946402284555</v>
       </c>
       <c r="H127">
-        <v>0.9999475985765457</v>
+        <v>0.9999498665332794</v>
       </c>
       <c r="I127">
-        <v>0.9999903937180837</v>
+        <v>1.000015040238698</v>
       </c>
       <c r="L127">
-        <v>45.33167474617788</v>
+        <v>58.80602738071585</v>
       </c>
       <c r="M127">
-        <v>46.95153217079762</v>
+        <v>55.48095963478116</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5154,34 +5154,34 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.999863624572754</v>
+        <v>1.000181078910828</v>
       </c>
       <c r="C128">
-        <v>1.000096559524536</v>
+        <v>1.000312328338623</v>
       </c>
       <c r="D128">
-        <v>0.9996992349624634</v>
+        <v>0.9999794363975524</v>
       </c>
       <c r="E128">
-        <v>0.9999399781227112</v>
+        <v>1.00009548664093</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>15547440</v>
       </c>
       <c r="G128">
-        <v>0.9999564673200081</v>
+        <v>1.000003808084135</v>
       </c>
       <c r="H128">
-        <v>0.9999377489089966</v>
+        <v>0.9999507129192352</v>
       </c>
       <c r="I128">
-        <v>0.9999838074048361</v>
+        <v>1.00001437664032</v>
       </c>
       <c r="L128">
-        <v>49.37443557518062</v>
+        <v>54.24934037017291</v>
       </c>
       <c r="M128">
-        <v>49.21165073167568</v>
+        <v>52.93827830869771</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5189,34 +5189,34 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.999930739402771</v>
+        <v>1.000106453895569</v>
       </c>
       <c r="C129">
-        <v>1.000062465667725</v>
+        <v>1.000355958938599</v>
       </c>
       <c r="D129">
-        <v>0.999639928340912</v>
+        <v>1.000006318092346</v>
       </c>
       <c r="E129">
-        <v>0.9997157454490662</v>
+        <v>1.000217318534851</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>3666288</v>
       </c>
       <c r="G129">
-        <v>0.9999345835135589</v>
+        <v>1.000023218125109</v>
       </c>
       <c r="H129">
-        <v>0.9999310135841369</v>
+        <v>0.9999628990888596</v>
       </c>
       <c r="I129">
-        <v>0.9999696552753449</v>
+        <v>1.000017269452413</v>
       </c>
       <c r="L129">
-        <v>38.76816285798282</v>
+        <v>59.36286758511207</v>
       </c>
       <c r="M129">
-        <v>42.75996546659918</v>
+        <v>56.06817185579938</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5224,34 +5224,34 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.9996907114982604</v>
+        <v>1.000211596488953</v>
       </c>
       <c r="C130">
-        <v>0.9999368786811828</v>
+        <v>1.000421404838562</v>
       </c>
       <c r="D130">
-        <v>0.999630570411682</v>
+        <v>0.9999895095825196</v>
       </c>
       <c r="E130">
-        <v>0.9996669292449952</v>
+        <v>1.000279903411865</v>
       </c>
       <c r="F130">
-        <v>6677624</v>
+        <v>27760144</v>
       </c>
       <c r="G130">
-        <v>0.9999102513073258</v>
+        <v>1.000046553151178</v>
       </c>
       <c r="H130">
-        <v>0.999927020072937</v>
+        <v>0.9999755531549454</v>
       </c>
       <c r="I130">
-        <v>0.9999560177326202</v>
+        <v>1.000024143854777</v>
       </c>
       <c r="L130">
-        <v>36.83046745123612</v>
+        <v>61.82847353405653</v>
       </c>
       <c r="M130">
-        <v>41.48486411628104</v>
+        <v>57.62715863984351</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5259,34 +5259,34 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.9996799230575562</v>
+        <v>1.000288486480713</v>
       </c>
       <c r="C131">
-        <v>1.000005602836609</v>
+        <v>1.000450849533081</v>
       </c>
       <c r="D131">
-        <v>0.9995298385620116</v>
+        <v>1.000028014183044</v>
       </c>
       <c r="E131">
-        <v>0.9998544454574584</v>
+        <v>1.000088334083557</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>10001296</v>
       </c>
       <c r="G131">
-        <v>0.999905178048247</v>
+        <v>1.000050351417758</v>
       </c>
       <c r="H131">
-        <v>0.9999256730079651</v>
+        <v>0.9999782234430313</v>
       </c>
       <c r="I131">
-        <v>0.9999502638975779</v>
+        <v>1.0000239610672</v>
       </c>
       <c r="L131">
-        <v>48.0510286758118</v>
+        <v>51.14295649343113</v>
       </c>
       <c r="M131">
-        <v>47.9105123329445</v>
+        <v>51.59202379013361</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5294,34 +5294,34 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.9998555183410645</v>
+        <v>1.000082015991211</v>
       </c>
       <c r="C132">
-        <v>1.000087738037109</v>
+        <v>1.000444293022156</v>
       </c>
       <c r="D132">
-        <v>0.9996244311332704</v>
+        <v>0.9999139904975892</v>
       </c>
       <c r="E132">
-        <v>0.9998626708984376</v>
+        <v>1.000203490257263</v>
       </c>
       <c r="F132">
-        <v>6972336</v>
+        <v>14953376</v>
       </c>
       <c r="G132">
-        <v>0.9999013137619006</v>
+        <v>1.00006427313044</v>
       </c>
       <c r="H132">
-        <v>0.9999148607254028</v>
+        <v>1.000001883506775</v>
       </c>
       <c r="I132">
-        <v>0.9999408185482025</v>
+        <v>1.000032450755437</v>
       </c>
       <c r="L132">
-        <v>48.50243382787276</v>
+        <v>56.25557619571941</v>
       </c>
       <c r="M132">
-        <v>48.17932938132735</v>
+        <v>54.66553101105387</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5329,34 +5329,34 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.999889075756073</v>
+        <v>1.000217437744141</v>
       </c>
       <c r="C133">
-        <v>1.000016808509827</v>
+        <v>1.000765204429626</v>
       </c>
       <c r="D133">
-        <v>0.9992501139640808</v>
+        <v>1.000138401985168</v>
       </c>
       <c r="E133">
-        <v>0.9995495676994324</v>
+        <v>1.000261306762695</v>
       </c>
       <c r="F133">
-        <v>16317544</v>
+        <v>7145952</v>
       </c>
       <c r="G133">
-        <v>0.9998693368471308</v>
+        <v>1.000082185278827</v>
       </c>
       <c r="H133">
-        <v>0.9998963862657547</v>
+        <v>1.000022181868553</v>
       </c>
       <c r="I133">
-        <v>0.99992462793986</v>
+        <v>1.000041204690933</v>
       </c>
       <c r="L133">
-        <v>35.3488149304717</v>
+        <v>58.6968506611645</v>
       </c>
       <c r="M133">
-        <v>39.76657982064279</v>
+        <v>56.17018367222139</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5364,34 +5364,34 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.9995351433753968</v>
+        <v>1.000239253044128</v>
       </c>
       <c r="C134">
-        <v>1.000120162963867</v>
+        <v>1.000413060188294</v>
       </c>
       <c r="D134">
-        <v>0.9993372559547424</v>
+        <v>1.000003576278686</v>
       </c>
       <c r="E134">
-        <v>0.9999191164970398</v>
+        <v>1.000347852706909</v>
       </c>
       <c r="F134">
-        <v>26206080</v>
+        <v>8988384</v>
       </c>
       <c r="G134">
-        <v>0.9998738622698498</v>
+        <v>1.000106336863198</v>
       </c>
       <c r="H134">
-        <v>0.9998944431543351</v>
+        <v>1.000047409534454</v>
       </c>
       <c r="I134">
-        <v>0.9999208470185598</v>
+        <v>1.000019743045171</v>
       </c>
       <c r="L134">
-        <v>52.4657261460357</v>
+        <v>62.24510378298175</v>
       </c>
       <c r="M134">
-        <v>50.70694702737266</v>
+        <v>58.39616080720786</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5399,34 +5399,34 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.9999030828475952</v>
+        <v>1.000342607498169</v>
       </c>
       <c r="C135">
-        <v>1.000122666358948</v>
+        <v>1.00046706199646</v>
       </c>
       <c r="D135">
-        <v>0.9997735023498536</v>
+        <v>1.000012636184692</v>
       </c>
       <c r="E135">
-        <v>0.9999416470527648</v>
+        <v>1.000377655029297</v>
       </c>
       <c r="F135">
-        <v>10185968</v>
+        <v>10955888</v>
       </c>
       <c r="G135">
-        <v>0.9998800245228421</v>
+        <v>1.000131002151025</v>
       </c>
       <c r="H135">
-        <v>0.9998915255069732</v>
+        <v>1.000073570013046</v>
       </c>
       <c r="I135">
-        <v>0.9999193986256917</v>
+        <v>1.000031012296677</v>
       </c>
       <c r="L135">
-        <v>53.31352461650071</v>
+        <v>63.46112867317139</v>
       </c>
       <c r="M135">
-        <v>51.28786700971485</v>
+        <v>59.16523663714835</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5434,34 +5434,34 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.999966561794281</v>
+        <v>1.000390648841858</v>
       </c>
       <c r="C136">
-        <v>1.000159025192261</v>
+        <v>1.00067150592804</v>
       </c>
       <c r="D136">
-        <v>0.9996355772018432</v>
+        <v>1.000169515609741</v>
       </c>
       <c r="E136">
-        <v>0.9996355772018432</v>
+        <v>1.00019121170044</v>
       </c>
       <c r="F136">
-        <v>6339872</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.9998578020391149</v>
+        <v>1.000136475746426</v>
       </c>
       <c r="H136">
-        <v>0.9998747348785401</v>
+        <v>1.000092786550522</v>
       </c>
       <c r="I136">
-        <v>0.9999053160349528</v>
+        <v>1.000033968687057</v>
       </c>
       <c r="L136">
-        <v>41.89419135853166</v>
+        <v>51.73393804569184</v>
       </c>
       <c r="M136">
-        <v>43.74565326255647</v>
+        <v>52.61272268847777</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5469,34 +5469,34 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.9997796416282654</v>
+        <v>1.000208973884582</v>
       </c>
       <c r="C137">
-        <v>1.000110983848572</v>
+        <v>1.000508785247803</v>
       </c>
       <c r="D137">
-        <v>0.999601185321808</v>
+        <v>1.000102519989014</v>
       </c>
       <c r="E137">
-        <v>0.9999263882637024</v>
+        <v>1.000252723693848</v>
       </c>
       <c r="F137">
-        <v>9297360</v>
+        <v>68444944</v>
       </c>
       <c r="G137">
-        <v>0.999864037150441</v>
+        <v>1.000147043741646</v>
       </c>
       <c r="H137">
-        <v>0.9998797029256821</v>
+        <v>1.000115662813187</v>
       </c>
       <c r="I137">
-        <v>0.9998988012472788</v>
+        <v>1.000043753782908</v>
       </c>
       <c r="L137">
-        <v>52.71925698151211</v>
+        <v>54.83194946949445</v>
       </c>
       <c r="M137">
-        <v>51.10329808120799</v>
+        <v>54.4067916738217</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5504,34 +5504,34 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>1.000004887580872</v>
+        <v>1.000275015830994</v>
       </c>
       <c r="C138">
-        <v>1.00016975402832</v>
+        <v>1.000430703163147</v>
       </c>
       <c r="D138">
-        <v>0.9995906949043274</v>
+        <v>0.9999247789382936</v>
       </c>
       <c r="E138">
-        <v>0.999950349330902</v>
+        <v>1.000034689903259</v>
       </c>
       <c r="F138">
-        <v>12006704</v>
+        <v>9948640</v>
       </c>
       <c r="G138">
-        <v>0.9998718837123011</v>
+        <v>1.000136829756338</v>
       </c>
       <c r="H138">
-        <v>0.9998838096857071</v>
+        <v>1.000120627880096</v>
       </c>
       <c r="I138">
-        <v>0.9998925805091858</v>
+        <v>1.00004229148229</v>
       </c>
       <c r="L138">
-        <v>53.52187216599624</v>
+        <v>43.65769663106638</v>
       </c>
       <c r="M138">
-        <v>51.66425699109608</v>
+        <v>47.53680274034245</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5539,34 +5539,34 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.9998516440391541</v>
+        <v>1.000043511390686</v>
       </c>
       <c r="C139">
-        <v>1.000205516815186</v>
+        <v>1.000238180160522</v>
       </c>
       <c r="D139">
-        <v>0.9997090101242064</v>
+        <v>0.9999442100524902</v>
       </c>
       <c r="E139">
-        <v>1.000115394592285</v>
+        <v>1.000187873840332</v>
       </c>
       <c r="F139">
-        <v>16437264</v>
+        <v>1496800</v>
       </c>
       <c r="G139">
-        <v>0.9998940210650269</v>
+        <v>1.000141470127611</v>
       </c>
       <c r="H139">
-        <v>0.9999007970094681</v>
+        <v>1.000135362148285</v>
       </c>
       <c r="I139">
-        <v>0.99990141193072</v>
+        <v>1.000049434105555</v>
       </c>
       <c r="L139">
-        <v>58.92505314259049</v>
+        <v>51.47399749663821</v>
       </c>
       <c r="M139">
-        <v>55.45506185940749</v>
+        <v>52.11194136605443</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5574,34 +5574,34 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>1.000041127204895</v>
+        <v>1.000177145004272</v>
       </c>
       <c r="C140">
-        <v>1.000276207923889</v>
+        <v>1.000296831130981</v>
       </c>
       <c r="D140">
-        <v>0.9999272227287292</v>
+        <v>1.000003814697266</v>
       </c>
       <c r="E140">
-        <v>1.000130534172058</v>
+        <v>1.000174522399902</v>
       </c>
       <c r="F140">
-        <v>3481152</v>
+        <v>2445392</v>
       </c>
       <c r="G140">
-        <v>0.9999155222565751</v>
+        <v>1.000144474879637</v>
       </c>
       <c r="H140">
-        <v>0.9998997300863266</v>
+        <v>1.000155079364777</v>
       </c>
       <c r="I140">
-        <v>0.9999142030874888</v>
+        <v>1.000054357449214</v>
       </c>
       <c r="L140">
-        <v>59.41197812498402</v>
+        <v>50.78319467044599</v>
       </c>
       <c r="M140">
-        <v>55.79751813541571</v>
+        <v>51.68883860840631</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5609,34 +5609,34 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>1.000116229057312</v>
+        <v>1.000165462493896</v>
       </c>
       <c r="C141">
-        <v>1.000254988670349</v>
+        <v>1.000301957130432</v>
       </c>
       <c r="D141">
-        <v>0.9998539686203004</v>
+        <v>0.9999818801879884</v>
       </c>
       <c r="E141">
-        <v>1.000073671340942</v>
+        <v>1.000217437744141</v>
       </c>
       <c r="F141">
-        <v>84802064</v>
+        <v>5333568</v>
       </c>
       <c r="G141">
-        <v>0.999929899446063</v>
+        <v>1.000151107867319</v>
       </c>
       <c r="H141">
-        <v>0.999896964430809</v>
+        <v>1.000167354941368</v>
       </c>
       <c r="I141">
-        <v>0.9999206125736236</v>
+        <v>1.000060441096624</v>
       </c>
       <c r="L141">
-        <v>56.57797933648514</v>
+        <v>53.06110223220224</v>
       </c>
       <c r="M141">
-        <v>54.11475944082044</v>
+        <v>53.00948920158014</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5644,34 +5644,34 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>1.000060796737671</v>
+        <v>1.000237107276917</v>
       </c>
       <c r="C142">
-        <v>1.000199317932129</v>
+        <v>1.000403165817261</v>
       </c>
       <c r="D142">
-        <v>0.9998881816864014</v>
+        <v>1.000088691711426</v>
       </c>
       <c r="E142">
-        <v>1.000093817710876</v>
+        <v>1.000304698944092</v>
       </c>
       <c r="F142">
-        <v>10383040</v>
+        <v>11102624</v>
       </c>
       <c r="G142">
-        <v>0.9999448011065005</v>
+        <v>1.00016507069248</v>
       </c>
       <c r="H142">
-        <v>0.9998977512121201</v>
+        <v>1.00019029378891</v>
       </c>
       <c r="I142">
-        <v>0.9999211092789968</v>
+        <v>1.000079588095347</v>
       </c>
       <c r="L142">
-        <v>57.38815068129456</v>
+        <v>57.55487956305234</v>
       </c>
       <c r="M142">
-        <v>54.63675176255461</v>
+        <v>55.66345639301471</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5679,34 +5679,34 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>1.000094294548035</v>
+        <v>1.000294208526611</v>
       </c>
       <c r="C143">
-        <v>1.000210881233215</v>
+        <v>1.000421643257141</v>
       </c>
       <c r="D143">
-        <v>0.9998599290847778</v>
+        <v>1.000162124633789</v>
       </c>
       <c r="E143">
-        <v>0.9999487996101381</v>
+        <v>1.000223398208618</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>3077312</v>
       </c>
       <c r="G143">
-        <v>0.9999451646068311</v>
+        <v>1.000170373193947</v>
       </c>
       <c r="H143">
-        <v>0.9998949587345123</v>
+        <v>1.00019303560257</v>
       </c>
       <c r="I143">
-        <v>0.9999221007029215</v>
+        <v>1.000091856718063</v>
       </c>
       <c r="L143">
-        <v>49.85534889660553</v>
+        <v>52.30611665136234</v>
       </c>
       <c r="M143">
-        <v>50.20900467484805</v>
+        <v>52.6782478089541</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5714,1235 +5714,1235 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.9999501705169678</v>
+        <v>1.000243663787842</v>
       </c>
       <c r="C144">
-        <v>1.000240445137024</v>
+        <v>1.000300407409668</v>
       </c>
       <c r="D144">
-        <v>0.9998779296875</v>
+        <v>1.000126838684082</v>
       </c>
       <c r="E144">
-        <v>0.9999986886978148</v>
+        <v>1.000171899795532</v>
       </c>
       <c r="F144">
-        <v>2585152</v>
+        <v>7220144</v>
       </c>
       <c r="G144">
-        <v>0.9999500304332842</v>
+        <v>1.000170511975909</v>
       </c>
       <c r="H144">
-        <v>0.9998936176300048</v>
+        <v>1.000201243162155</v>
       </c>
       <c r="I144">
-        <v>0.999923457702001</v>
+        <v>1.000102810064952</v>
       </c>
       <c r="L144">
-        <v>52.27958222909919</v>
+        <v>49.11432260938145</v>
       </c>
       <c r="M144">
-        <v>51.66034581387559</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>50.81909331991382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>1.000007033348083</v>
+        <v>1.000176429748535</v>
       </c>
       <c r="C145">
-        <v>1.001061320304871</v>
+        <v>1.000348329544067</v>
       </c>
       <c r="D145">
-        <v>1.000000596046448</v>
+        <v>1.000155925750732</v>
       </c>
       <c r="E145">
-        <v>1.000991702079773</v>
+        <v>1.000255227088928</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1483424</v>
       </c>
       <c r="G145">
-        <v>1.000044727855692</v>
+        <v>1.00017821334982</v>
       </c>
       <c r="H145">
-        <v>0.999947065114975</v>
+        <v>1.000213181972504</v>
       </c>
       <c r="I145">
-        <v>0.9999565144379934</v>
+        <v>1.000116169452667</v>
       </c>
       <c r="L145">
-        <v>77.08569065844115</v>
+        <v>54.20152852220931</v>
       </c>
       <c r="M145">
-        <v>70.24917228500281</v>
-      </c>
-      <c r="O145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>53.66840230465823</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>1.000996589660644</v>
+        <v>1.000247120857239</v>
       </c>
       <c r="C146">
-        <v>1.001295566558838</v>
+        <v>1.00033700466156</v>
       </c>
       <c r="D146">
-        <v>1.000001311302185</v>
+        <v>1.000123620033264</v>
       </c>
       <c r="E146">
-        <v>1.000039577484131</v>
+        <v>1.000230312347412</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>4402864</v>
       </c>
       <c r="G146">
-        <v>1.000044259640096</v>
+        <v>1.000182949622329</v>
       </c>
       <c r="H146">
-        <v>0.9999613195657731</v>
+        <v>1.00021476149559</v>
       </c>
       <c r="I146">
-        <v>0.9999587873617808</v>
+        <v>1.00013028383255</v>
       </c>
       <c r="L146">
-        <v>49.39112638547277</v>
+        <v>52.43812170061015</v>
       </c>
       <c r="M146">
-        <v>50.28306031948924</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>52.68554984869812</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>1.000020146369934</v>
+        <v>1.000216484069824</v>
       </c>
       <c r="C147">
-        <v>1.000336647033691</v>
+        <v>1.00029468536377</v>
       </c>
       <c r="D147">
-        <v>0.9999181628227234</v>
+        <v>1.000128388404846</v>
       </c>
       <c r="E147">
-        <v>1.000102519989014</v>
+        <v>1.00014317035675</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>4926304</v>
       </c>
       <c r="G147">
-        <v>1.000049556035452</v>
+        <v>1.000179333325458</v>
       </c>
       <c r="H147">
-        <v>0.9999728560447693</v>
+        <v>1.000212925672531</v>
       </c>
       <c r="I147">
-        <v>0.9999679704507192</v>
+        <v>1.000141882896423</v>
       </c>
       <c r="L147">
-        <v>50.70816502084583</v>
+        <v>46.48703299075265</v>
       </c>
       <c r="M147">
-        <v>51.26909388506738</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>49.2857979346693</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>1.000117897987366</v>
+        <v>1.000147938728332</v>
       </c>
       <c r="C148">
-        <v>1.000231385231018</v>
+        <v>1.000323295593261</v>
       </c>
       <c r="D148">
-        <v>0.9999305605888368</v>
+        <v>1.000019669532776</v>
       </c>
       <c r="E148">
-        <v>0.9999591708183287</v>
+        <v>1.00009024143219</v>
       </c>
       <c r="F148">
-        <v>559616</v>
+        <v>7716688</v>
       </c>
       <c r="G148">
-        <v>1.000041339197532</v>
+        <v>1.000171234062433</v>
       </c>
       <c r="H148">
-        <v>0.9999738156795501</v>
+        <v>1.000212663412094</v>
       </c>
       <c r="I148">
-        <v>0.9999710023403168</v>
+        <v>1.000147044658661</v>
       </c>
       <c r="L148">
-        <v>47.5384477547383</v>
+        <v>43.14151903879187</v>
       </c>
       <c r="M148">
-        <v>48.8908794727074</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>47.28974101199943</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.999974489212036</v>
+        <v>1.000089049339294</v>
       </c>
       <c r="C149">
-        <v>1.000251889228821</v>
+        <v>1.000293254852295</v>
       </c>
       <c r="D149">
-        <v>0.999974489212036</v>
+        <v>0.9998793005943298</v>
       </c>
       <c r="E149">
-        <v>1.000078558921814</v>
+        <v>1.000277161598206</v>
       </c>
       <c r="F149">
-        <v>7631424</v>
+        <v>1925152</v>
       </c>
       <c r="G149">
-        <v>1.00004472280883</v>
+        <v>1.000180863838413</v>
       </c>
       <c r="H149">
-        <v>0.9999919563531876</v>
+        <v>1.000215655565262</v>
       </c>
       <c r="I149">
-        <v>0.9999810993671417</v>
+        <v>1.000159843762716</v>
       </c>
       <c r="L149">
-        <v>50.44102216407658</v>
+        <v>55.78385898781262</v>
       </c>
       <c r="M149">
-        <v>50.93234124999762</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>54.32496305337399</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>1.000074028968811</v>
+        <v>1.000282049179077</v>
       </c>
       <c r="C150">
-        <v>1.00015389919281</v>
+        <v>1.000330567359924</v>
       </c>
       <c r="D150">
-        <v>0.9997667074203492</v>
+        <v>1.000033378601074</v>
       </c>
       <c r="E150">
-        <v>0.9999735951423644</v>
+        <v>1.000107884407044</v>
       </c>
       <c r="F150">
-        <v>8374600</v>
+        <v>2618144</v>
       </c>
       <c r="G150">
-        <v>1.000038256657333</v>
+        <v>1.000174229344652</v>
       </c>
       <c r="H150">
-        <v>1.000007289648056</v>
+        <v>1.000207054615021</v>
       </c>
       <c r="I150">
-        <v>0.9999751567840576</v>
+        <v>1.000170767307281</v>
       </c>
       <c r="L150">
-        <v>47.8239334307078</v>
+        <v>45.48101413715228</v>
       </c>
       <c r="M150">
-        <v>49.0763406695137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>48.06797335436118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.9999475479125975</v>
+        <v>1.00012195110321</v>
       </c>
       <c r="C151">
-        <v>1.000122547149658</v>
+        <v>1.000264286994934</v>
       </c>
       <c r="D151">
-        <v>0.9998924136161804</v>
+        <v>0.999881625175476</v>
       </c>
       <c r="E151">
-        <v>1.000026822090149</v>
+        <v>1.000066995620728</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>1.000037217151225</v>
+        <v>1.000164480824295</v>
       </c>
       <c r="H151">
-        <v>1.00001590847969</v>
+        <v>1.000205987691879</v>
       </c>
       <c r="I151">
-        <v>0.9999717513720194</v>
+        <v>1.000173936287562</v>
       </c>
       <c r="J151">
-        <v>0.9999088358879089</v>
+        <v>0.999993763367335</v>
       </c>
       <c r="L151">
-        <v>49.32390268064003</v>
+        <v>43.30746402775772</v>
       </c>
       <c r="M151">
-        <v>50.0699670344548</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>46.66970191682277</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>1.000017166137695</v>
+        <v>1.00004231929779</v>
       </c>
       <c r="C152">
-        <v>1.000131964683533</v>
+        <v>1.000169157981873</v>
       </c>
       <c r="D152">
-        <v>0.9998801946640016</v>
+        <v>0.9998521208763124</v>
       </c>
       <c r="E152">
-        <v>1.000034928321838</v>
+        <v>1.00007426738739</v>
       </c>
       <c r="F152">
-        <v>21873704</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1.000037009075826</v>
+        <v>1.000156279602758</v>
       </c>
       <c r="H152">
-        <v>1.000024521350861</v>
+        <v>1.000199526548386</v>
       </c>
       <c r="I152">
-        <v>0.9999703129132589</v>
+        <v>1.0001815478007</v>
       </c>
       <c r="J152">
-        <v>0.9999105059863715</v>
+        <v>0.9999948296457465</v>
       </c>
       <c r="L152">
-        <v>49.57228477452321</v>
+        <v>43.84439794935912</v>
       </c>
       <c r="M152">
-        <v>50.22924286660301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <v>46.96517451908198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>1.000063300132752</v>
+        <v>1.000088453292847</v>
       </c>
       <c r="C153">
-        <v>1.000207185745239</v>
+        <v>1.000252366065979</v>
       </c>
       <c r="D153">
-        <v>0.9996732473373412</v>
+        <v>0.9999004602432252</v>
       </c>
       <c r="E153">
-        <v>0.9997302889823914</v>
+        <v>1.000072002410889</v>
       </c>
       <c r="F153">
-        <v>18015992</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>1.000009125430969</v>
+        <v>1.000148618039861</v>
       </c>
       <c r="H153">
-        <v>1.000033557415009</v>
+        <v>1.000190061330795</v>
       </c>
       <c r="I153">
-        <v>0.9999611675739288</v>
+        <v>1.000178329149882</v>
       </c>
       <c r="J153">
-        <v>0.9999081190061864</v>
+        <v>0.9999958518015761</v>
       </c>
       <c r="L153">
-        <v>41.06309357606307</v>
+        <v>43.69937175877881</v>
       </c>
       <c r="M153">
-        <v>44.48593134721569</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>46.87805384466583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.999739110469818</v>
+        <v>1.000124096870422</v>
       </c>
       <c r="C154">
-        <v>0.9999374151229858</v>
+        <v>1.000246524810791</v>
       </c>
       <c r="D154">
-        <v>0.9995962381362916</v>
+        <v>0.9999691843986512</v>
       </c>
       <c r="E154">
-        <v>0.99985533952713</v>
+        <v>1.000086665153503</v>
       </c>
       <c r="F154">
-        <v>16241632</v>
+        <v>3645920</v>
       </c>
       <c r="G154">
-        <v>0.999995144894256</v>
+        <v>1.000142985959283</v>
       </c>
       <c r="H154">
-        <v>1.000030368566513</v>
+        <v>1.000177001953125</v>
       </c>
       <c r="I154">
-        <v>0.9999554951985677</v>
+        <v>1.000180959701538</v>
       </c>
       <c r="J154">
-        <v>0.9999074199402386</v>
+        <v>0.9999970546274295</v>
       </c>
       <c r="L154">
-        <v>45.39181108722784</v>
+        <v>45.02374832457757</v>
       </c>
       <c r="M154">
-        <v>47.15695575526043</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>47.5562806754749</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.9998637437820436</v>
+        <v>1.000072240829468</v>
       </c>
       <c r="C155">
-        <v>1.000036478042602</v>
+        <v>1.000192403793335</v>
       </c>
       <c r="D155">
-        <v>0.9997202157974244</v>
+        <v>0.99996018409729</v>
       </c>
       <c r="E155">
-        <v>0.9998432993888856</v>
+        <v>1.000089287757874</v>
       </c>
       <c r="F155">
-        <v>5548128</v>
+        <v>3779136</v>
       </c>
       <c r="G155">
-        <v>0.9999813407574042</v>
+        <v>1.000138104304609</v>
       </c>
       <c r="H155">
-        <v>1.000025451183319</v>
+        <v>1.000162583589554</v>
       </c>
       <c r="I155">
-        <v>0.9999528467655182</v>
+        <v>1.000183387597402</v>
       </c>
       <c r="J155">
-        <v>0.9999065706614128</v>
+        <v>0.9999982762582963</v>
       </c>
       <c r="L155">
-        <v>45.03354438469155</v>
+        <v>45.28274408057634</v>
       </c>
       <c r="M155">
-        <v>46.92286198260101</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>47.68493666146965</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.9998126626014709</v>
+        <v>1.000091075897217</v>
       </c>
       <c r="C156">
-        <v>1.000113725662231</v>
+        <v>1.000239253044128</v>
       </c>
       <c r="D156">
-        <v>0.9997382164001464</v>
+        <v>0.9999934434890748</v>
       </c>
       <c r="E156">
-        <v>0.9998544454574584</v>
+        <v>1.000054836273193</v>
       </c>
       <c r="F156">
-        <v>15892752</v>
+        <v>10687440</v>
       </c>
       <c r="G156">
-        <v>0.9999698048210455</v>
+        <v>1.000130534483572</v>
       </c>
       <c r="H156">
-        <v>1.0000363945961</v>
+        <v>1.000155764818192</v>
       </c>
       <c r="I156">
-        <v>0.9999561786651612</v>
+        <v>1.000178591410319</v>
       </c>
       <c r="J156">
-        <v>0.9999058802613604</v>
+        <v>0.9999990253975665</v>
       </c>
       <c r="L156">
-        <v>45.48168480917691</v>
+        <v>42.33528557554772</v>
       </c>
       <c r="M156">
-        <v>47.18424808150934</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>46.08552272387308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.99985933303833</v>
+        <v>1.000106930732727</v>
       </c>
       <c r="C157">
-        <v>1.000082969665527</v>
+        <v>1.000260949134827</v>
       </c>
       <c r="D157">
-        <v>0.999640166759491</v>
+        <v>0.9999094009399414</v>
       </c>
       <c r="E157">
-        <v>0.9998068809509276</v>
+        <v>0.9999760985374452</v>
       </c>
       <c r="F157">
-        <v>94900976</v>
+        <v>13180448</v>
       </c>
       <c r="G157">
-        <v>0.9999549935601256</v>
+        <v>1.000116494852106</v>
       </c>
       <c r="H157">
-        <v>1.000030419230461</v>
+        <v>1.000141933560371</v>
       </c>
       <c r="I157">
-        <v>0.9999540150165558</v>
+        <v>1.000171798467636</v>
       </c>
       <c r="J157">
-        <v>0.9999045690122157</v>
+        <v>0.999998721730545</v>
       </c>
       <c r="L157">
-        <v>43.76854690750379</v>
+        <v>36.26594553861666</v>
       </c>
       <c r="M157">
-        <v>46.14001207999041</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>42.57109848686518</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.9997930526733398</v>
+        <v>0.9999979138374328</v>
       </c>
       <c r="C158">
-        <v>1.000211715698242</v>
+        <v>1.000396490097046</v>
       </c>
       <c r="D158">
-        <v>0.9996781945228576</v>
+        <v>0.9999562501907348</v>
       </c>
       <c r="E158">
-        <v>0.9997951984405518</v>
+        <v>1.000133275985718</v>
       </c>
       <c r="F158">
-        <v>28770576</v>
+        <v>6046032</v>
       </c>
       <c r="G158">
-        <v>0.9999404667310735</v>
+        <v>1.000118020409707</v>
       </c>
       <c r="H158">
-        <v>1.000022661685944</v>
+        <v>1.000146862864494</v>
       </c>
       <c r="I158">
-        <v>0.9999491890271505</v>
+        <v>1.000173058112462</v>
       </c>
       <c r="J158">
-        <v>0.9999031203953725</v>
+        <v>1.00000050390611</v>
       </c>
       <c r="L158">
-        <v>43.31770228496459</v>
+        <v>51.78812857514727</v>
       </c>
       <c r="M158">
-        <v>45.87148856692446</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>50.65986015256482</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.9997708201408386</v>
+        <v>1.000084519386292</v>
       </c>
       <c r="C159">
-        <v>1.000026941299438</v>
+        <v>1.000336647033691</v>
       </c>
       <c r="D159">
-        <v>0.9996273517608644</v>
+        <v>1.000011920928955</v>
       </c>
       <c r="E159">
-        <v>0.9999353885650636</v>
+        <v>1.00014328956604</v>
       </c>
       <c r="F159">
-        <v>36908000</v>
+        <v>10754896</v>
       </c>
       <c r="G159">
-        <v>0.9999400050796181</v>
+        <v>1.000120317605737</v>
       </c>
       <c r="H159">
-        <v>1.000013661384582</v>
+        <v>1.00014463365078</v>
       </c>
       <c r="I159">
-        <v>0.9999565104643504</v>
+        <v>1.000170590480169</v>
       </c>
       <c r="J159">
-        <v>0.9999035477883486</v>
+        <v>1.000002395106904</v>
       </c>
       <c r="L159">
-        <v>50.23760247257632</v>
+        <v>52.61525421302701</v>
       </c>
       <c r="M159">
-        <v>49.65768975699253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>51.13209613564023</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.9999249577522278</v>
+        <v>1.00012743473053</v>
       </c>
       <c r="C160">
-        <v>1.000194430351257</v>
+        <v>1.000246286392212</v>
       </c>
       <c r="D160">
-        <v>0.9997199773788452</v>
+        <v>0.9999831914901732</v>
       </c>
       <c r="E160">
-        <v>0.9998931884765624</v>
+        <v>1.00002658367157</v>
       </c>
       <c r="F160">
-        <v>8635360</v>
+        <v>10142304</v>
       </c>
       <c r="G160">
-        <v>0.9999357490247948</v>
+        <v>1.000111796338994</v>
       </c>
       <c r="H160">
-        <v>1.000001794099808</v>
+        <v>1.000137236714363</v>
       </c>
       <c r="I160">
-        <v>0.999964052438736</v>
+        <v>1.000162146488826</v>
       </c>
       <c r="J160">
-        <v>0.9999034105789211</v>
+        <v>1.000002715485244</v>
       </c>
       <c r="L160">
-        <v>48.24309349930711</v>
+        <v>42.95320952945653</v>
       </c>
       <c r="M160">
-        <v>48.55664022554928</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>45.64841163966918</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.999894678592682</v>
+        <v>0.9999884366989136</v>
       </c>
       <c r="C161">
-        <v>1.000125169754028</v>
+        <v>1.000140428543091</v>
       </c>
       <c r="D161">
-        <v>0.9996268749237061</v>
+        <v>0.9999364614486694</v>
       </c>
       <c r="E161">
-        <v>0.9997801780700684</v>
+        <v>0.9999842047691344</v>
       </c>
       <c r="F161">
-        <v>33640896</v>
+        <v>1610464</v>
       </c>
       <c r="G161">
-        <v>0.9999216062107287</v>
+        <v>1.000100197105371</v>
       </c>
       <c r="H161">
-        <v>0.9999871194362641</v>
+        <v>1.000125575065613</v>
       </c>
       <c r="I161">
-        <v>0.9999615768591563</v>
+        <v>1.000158675511678</v>
       </c>
       <c r="J161">
-        <v>0.9999017783602608</v>
+        <v>1.000002470310196</v>
       </c>
       <c r="L161">
-        <v>43.08922460944171</v>
+        <v>39.95579646144033</v>
       </c>
       <c r="M161">
-        <v>45.63827699924273</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>43.81101152159265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.9998188018798828</v>
+        <v>1.000007510185242</v>
       </c>
       <c r="C162">
-        <v>1.000161647796631</v>
+        <v>1.000121116638184</v>
       </c>
       <c r="D162">
-        <v>0.999606728553772</v>
+        <v>0.999840259552002</v>
       </c>
       <c r="E162">
-        <v>0.9999719262123108</v>
+        <v>1.000041961669922</v>
       </c>
       <c r="F162">
-        <v>13521088</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.999926180756327</v>
+        <v>1.000094902974876</v>
       </c>
       <c r="H162">
-        <v>0.9999810248613358</v>
+        <v>1.000112438201904</v>
       </c>
       <c r="I162">
-        <v>0.9999652187029521</v>
+        <v>1.000153291225433</v>
       </c>
       <c r="J162">
-        <v>0.9999027074708841</v>
+        <v>1.000002993374564</v>
       </c>
       <c r="L162">
-        <v>52.72884039744845</v>
+        <v>45.75921195997095</v>
       </c>
       <c r="M162">
-        <v>51.01760630335919</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>46.94531244260086</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.9999549984931946</v>
+        <v>1.00002133846283</v>
       </c>
       <c r="C163">
-        <v>1.000168800354004</v>
+        <v>1.000185489654541</v>
       </c>
       <c r="D163">
-        <v>0.9996892213821412</v>
+        <v>0.9998201727867126</v>
       </c>
       <c r="E163">
-        <v>0.9998459219932556</v>
+        <v>1.000084519386292</v>
       </c>
       <c r="F163">
-        <v>8784864</v>
+        <v>4956928</v>
       </c>
       <c r="G163">
-        <v>0.9999188845051387</v>
+        <v>1.000093959012277</v>
       </c>
       <c r="H163">
-        <v>0.9999758809804916</v>
+        <v>1.000105494260788</v>
       </c>
       <c r="I163">
-        <v>0.9999750971794128</v>
+        <v>1.000147398312887</v>
       </c>
       <c r="J163">
-        <v>0.9999019553453525</v>
+        <v>1.000004073189289</v>
       </c>
       <c r="L163">
-        <v>46.86094085719434</v>
+        <v>49.78261575375771</v>
       </c>
       <c r="M163">
-        <v>47.67874528841235</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>49.19417097712702</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.99983412027359</v>
+        <v>1.000081181526184</v>
       </c>
       <c r="C164">
-        <v>1.000397443771362</v>
+        <v>1.000267744064331</v>
       </c>
       <c r="D164">
-        <v>0.9998300075531006</v>
+        <v>0.999921977519989</v>
       </c>
       <c r="E164">
-        <v>1.000168561935425</v>
+        <v>1.000118374824524</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>12128016</v>
       </c>
       <c r="G164">
-        <v>0.9999415824533464</v>
+        <v>1.000096178631572</v>
       </c>
       <c r="H164">
-        <v>0.9999843746423721</v>
+        <v>1.000102818012238</v>
       </c>
       <c r="I164">
-        <v>0.999983412027359</v>
+        <v>1.00013974905014</v>
       </c>
       <c r="J164">
-        <v>0.9999054865584661</v>
+        <v>1.000005587118232</v>
       </c>
       <c r="L164">
-        <v>59.76044880222985</v>
+        <v>52.90876938237481</v>
       </c>
       <c r="M164">
-        <v>55.67746661750119</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>50.97447999489963</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>1.000065684318542</v>
+        <v>1.000162363052368</v>
       </c>
       <c r="C165">
-        <v>1.000175476074219</v>
+        <v>1.000237703323364</v>
       </c>
       <c r="D165">
-        <v>0.9998770356178284</v>
+        <v>0.9998571872711182</v>
       </c>
       <c r="E165">
-        <v>1.000007748603821</v>
+        <v>1.000112056732178</v>
       </c>
       <c r="F165">
-        <v>143824</v>
+        <v>8906800</v>
       </c>
       <c r="G165">
-        <v>0.9999475975579351</v>
+        <v>1.000097622095264</v>
       </c>
       <c r="H165">
-        <v>0.9999351769685745</v>
+        <v>1.0000956594944</v>
       </c>
       <c r="I165">
-        <v>0.9999856154123942</v>
+        <v>1.00013089577357</v>
       </c>
       <c r="J165">
-        <v>0.999906841022643</v>
+        <v>1.000006997311794</v>
       </c>
       <c r="L165">
-        <v>52.60056268979444</v>
+        <v>52.22618773507394</v>
       </c>
       <c r="M165">
-        <v>51.45506850612451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>50.61800498763825</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>1.000014781951904</v>
+        <v>1.000128030776978</v>
       </c>
       <c r="C166">
-        <v>1.000308036804199</v>
+        <v>1.000220656394958</v>
       </c>
       <c r="D166">
-        <v>0.9998288154602052</v>
+        <v>0.999891459941864</v>
       </c>
       <c r="E166">
-        <v>1.000016450881958</v>
+        <v>1.000066995620728</v>
       </c>
       <c r="F166">
-        <v>5179376</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.999953856951028</v>
+        <v>1.000094837870306</v>
       </c>
       <c r="H166">
-        <v>0.9999340206384659</v>
+        <v>1.000087493658066</v>
       </c>
       <c r="I166">
-        <v>0.9999983112017313</v>
+        <v>1.000126755237579</v>
       </c>
       <c r="J166">
-        <v>0.9999082928088592</v>
+        <v>1.000007791991383</v>
       </c>
       <c r="L166">
-        <v>52.94378278602228</v>
+        <v>47.32720144558304</v>
       </c>
       <c r="M166">
-        <v>51.66866988586236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>48.03776732423172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>1.000017642974854</v>
+        <v>1.000083327293396</v>
       </c>
       <c r="C167">
-        <v>1.00038492679596</v>
+        <v>1.000176906585693</v>
       </c>
       <c r="D167">
-        <v>0.9997997283935548</v>
+        <v>0.9999459385871888</v>
       </c>
       <c r="E167">
-        <v>1.000198721885681</v>
+        <v>1.000064969062805</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9368912</v>
       </c>
       <c r="G167">
-        <v>0.9999761173996328</v>
+        <v>1.000092122524169</v>
       </c>
       <c r="H167">
-        <v>0.9999388307332993</v>
+        <v>1.000083583593369</v>
       </c>
       <c r="I167">
-        <v>1.000007388989131</v>
+        <v>1.000120496749878</v>
       </c>
       <c r="J167">
-        <v>0.9999121395515985</v>
+        <v>1.000008549303587</v>
       </c>
       <c r="L167">
-        <v>59.80240309643309</v>
+        <v>47.10364763245137</v>
       </c>
       <c r="M167">
-        <v>56.03243973524285</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>47.9194608765473</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>1.000213980674744</v>
+        <v>1.000059962272644</v>
       </c>
       <c r="C168">
-        <v>1.0003422498703</v>
+        <v>1.000233173370361</v>
       </c>
       <c r="D168">
-        <v>0.9999669790267944</v>
+        <v>0.9996978044509888</v>
       </c>
       <c r="E168">
-        <v>1.000179886817932</v>
+        <v>0.9997418522834778</v>
       </c>
       <c r="F168">
-        <v>924512</v>
+        <v>10877168</v>
       </c>
       <c r="G168">
-        <v>0.9999946418922054</v>
+        <v>1.000060279775016</v>
       </c>
       <c r="H168">
-        <v>0.9999498665332794</v>
+        <v>1.000066164135933</v>
       </c>
       <c r="I168">
-        <v>1.000015040238698</v>
+        <v>1.000110735495885</v>
       </c>
       <c r="J168">
-        <v>0.9999156858730069</v>
+        <v>1.000005016892725</v>
       </c>
       <c r="L168">
-        <v>58.80598094859756</v>
+        <v>25.49899376157887</v>
       </c>
       <c r="M168">
-        <v>55.4750422354529</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>33.67794180604039</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>1.000181078910828</v>
+        <v>0.99973464012146</v>
       </c>
       <c r="C169">
-        <v>1.000312328338623</v>
+        <v>1.00015652179718</v>
       </c>
       <c r="D169">
-        <v>0.9999794363975524</v>
+        <v>0.9996718168258668</v>
       </c>
       <c r="E169">
-        <v>1.00009548664093</v>
+        <v>1.000083684921265</v>
       </c>
       <c r="F169">
-        <v>15547440</v>
+        <v>13002160</v>
       </c>
       <c r="G169">
-        <v>1.000003809596635</v>
+        <v>1.000062407515584</v>
       </c>
       <c r="H169">
-        <v>0.9999507129192352</v>
+        <v>1.000056490302086</v>
       </c>
       <c r="I169">
-        <v>1.00001437664032</v>
+        <v>1.000107262531916</v>
       </c>
       <c r="J169">
-        <v>0.9999180673401318</v>
+        <v>1.000006058853368</v>
       </c>
       <c r="L169">
-        <v>54.24931019216024</v>
+        <v>51.80681725541788</v>
       </c>
       <c r="M169">
-        <v>52.93394881974406</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>50.45405093621579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>1.000106453895569</v>
+        <v>1.000089526176453</v>
       </c>
       <c r="C170">
-        <v>1.000355958938599</v>
+        <v>1.000240087509155</v>
       </c>
       <c r="D170">
-        <v>1.000006318092346</v>
+        <v>0.9998792409896852</v>
       </c>
       <c r="E170">
-        <v>1.000217318534851</v>
+        <v>1.000116467475891</v>
       </c>
       <c r="F170">
-        <v>3666288</v>
+        <v>1322224</v>
       </c>
       <c r="G170">
-        <v>1.000023219500109</v>
+        <v>1.00006732205743</v>
       </c>
       <c r="H170">
-        <v>0.9999628990888596</v>
+        <v>1.000056919455528</v>
       </c>
       <c r="I170">
-        <v>1.000017269452413</v>
+        <v>1.000105327367783</v>
       </c>
       <c r="J170">
-        <v>0.999922030932115</v>
+        <v>1.000007521219229</v>
       </c>
       <c r="L170">
-        <v>59.36282816464381</v>
+        <v>53.57550732345049</v>
       </c>
       <c r="M170">
-        <v>56.06261694246658</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>51.71545815702719</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>1.000211596488953</v>
+        <v>1.000096321105957</v>
       </c>
       <c r="C171">
-        <v>1.000421404838562</v>
+        <v>1.000180244445801</v>
       </c>
       <c r="D171">
-        <v>0.9999895095825196</v>
+        <v>0.999734342098236</v>
       </c>
       <c r="E171">
-        <v>1.000279903411865</v>
+        <v>0.9998257756233216</v>
       </c>
       <c r="F171">
-        <v>27760144</v>
+        <v>10091888</v>
       </c>
       <c r="G171">
-        <v>1.000046554401178</v>
+        <v>1.000045363290692</v>
       </c>
       <c r="H171">
-        <v>0.9999755531549454</v>
+        <v>1.000044858455658</v>
       </c>
       <c r="I171">
-        <v>1.000024143854777</v>
+        <v>1.000092271963755</v>
       </c>
       <c r="J171">
-        <v>0.9999267709649593</v>
+        <v>1.000005113992793</v>
       </c>
       <c r="L171">
-        <v>61.82843079161404</v>
+        <v>39.21763427176303</v>
       </c>
       <c r="M171">
-        <v>57.62107376388935</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>41.60131738521795</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>1.000288486480713</v>
+        <v>0.9998470544815063</v>
       </c>
       <c r="C172">
-        <v>1.000450849533081</v>
+        <v>1.000136375427246</v>
       </c>
       <c r="D172">
-        <v>1.000028014183044</v>
+        <v>0.9996771812438964</v>
       </c>
       <c r="E172">
-        <v>1.000088334083557</v>
+        <v>0.999918520450592</v>
       </c>
       <c r="F172">
-        <v>10001296</v>
+        <v>4772464</v>
       </c>
       <c r="G172">
-        <v>1.000050352554121</v>
+        <v>1.000033832123411</v>
       </c>
       <c r="H172">
-        <v>0.9999782234430313</v>
+        <v>1.000037071108818</v>
       </c>
       <c r="I172">
-        <v>1.0000239610672</v>
+        <v>1.000079399347305</v>
       </c>
       <c r="J172">
-        <v>0.999928910873815</v>
+        <v>1.00000396705846</v>
       </c>
       <c r="L172">
-        <v>51.14294162082258</v>
+        <v>44.55128600517198</v>
       </c>
       <c r="M172">
-        <v>51.58909562245327</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>45.2784439338029</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>1.000082015991211</v>
+        <v>0.9999327063560486</v>
       </c>
       <c r="C173">
-        <v>1.000444293022156</v>
+        <v>1.00014078617096</v>
       </c>
       <c r="D173">
-        <v>0.9999139904975892</v>
+        <v>0.9996585845947266</v>
       </c>
       <c r="E173">
-        <v>1.000203490257263</v>
+        <v>0.9999459981918336</v>
       </c>
       <c r="F173">
-        <v>14953376</v>
+        <v>253680</v>
       </c>
       <c r="G173">
-        <v>1.000064274163498</v>
+        <v>1.00002584722054</v>
       </c>
       <c r="H173">
-        <v>1.000001883506775</v>
+        <v>1.000030770897865</v>
       </c>
       <c r="I173">
-        <v>1.000032450755437</v>
+        <v>1.000070152680079</v>
       </c>
       <c r="J173">
-        <v>0.9999325476868408</v>
+        <v>1.000003199258902</v>
       </c>
       <c r="L173">
-        <v>56.25555410469907</v>
+        <v>46.12694599153235</v>
       </c>
       <c r="M173">
-        <v>54.66158691066189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+        <v>46.35615280811098</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>1.000217437744141</v>
+        <v>0.9998083710670472</v>
       </c>
       <c r="C174">
-        <v>1.000765204429626</v>
+        <v>0.9999774694442748</v>
       </c>
       <c r="D174">
-        <v>1.000138401985168</v>
+        <v>0.9995655417442322</v>
       </c>
       <c r="E174">
-        <v>1.000261306762695</v>
+        <v>0.9996889233589172</v>
       </c>
       <c r="F174">
-        <v>7145952</v>
+        <v>3689216</v>
       </c>
       <c r="G174">
-        <v>1.00008218621797</v>
+        <v>0.9999952177785741</v>
       </c>
       <c r="H174">
-        <v>1.000022181868553</v>
+        <v>1.000010883808136</v>
       </c>
       <c r="I174">
-        <v>1.000041204690933</v>
+        <v>1.000054053465525</v>
       </c>
       <c r="J174">
-        <v>0.9999369021116865</v>
+        <v>0.9999990366642001</v>
       </c>
       <c r="L174">
-        <v>58.69682584688243</v>
+        <v>35.50711754388315</v>
       </c>
       <c r="M174">
-        <v>56.16580161123043</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>38.6807507934645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>1.000239253044128</v>
+        <v>0.999689757823944</v>
       </c>
       <c r="C175">
-        <v>1.000413060188294</v>
+        <v>1.00005292892456</v>
       </c>
       <c r="D175">
-        <v>1.000003576278686</v>
+        <v>0.9993866086006165</v>
       </c>
       <c r="E175">
-        <v>1.000347852706909</v>
+        <v>1.000022530555725</v>
       </c>
       <c r="F175">
-        <v>8988384</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>1.000106337716965</v>
+        <v>0.9999977007583151</v>
       </c>
       <c r="H175">
-        <v>1.000047409534454</v>
+        <v>1.000007545948029</v>
       </c>
       <c r="I175">
-        <v>1.000019743045171</v>
+        <v>1.000046296914419</v>
       </c>
       <c r="J175">
-        <v>0.9999423451659279</v>
+        <v>0.9999993478415713</v>
       </c>
       <c r="L175">
-        <v>62.24507584441959</v>
+        <v>51.7311308880422</v>
       </c>
       <c r="M175">
-        <v>58.39120243525506</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+        <v>50.20343509327398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>1.000342607498169</v>
+        <v>1.000015258789062</v>
       </c>
       <c r="C176">
-        <v>1.00046706199646</v>
+        <v>1.000196933746338</v>
       </c>
       <c r="D176">
-        <v>1.000012636184692</v>
+        <v>0.9997838139533995</v>
       </c>
       <c r="E176">
-        <v>1.000377655029297</v>
+        <v>1.000062584877014</v>
       </c>
       <c r="F176">
-        <v>10955888</v>
+        <v>2867520</v>
       </c>
       <c r="G176">
-        <v>1.000131002927177</v>
+        <v>1.00000359931456</v>
       </c>
       <c r="H176">
-        <v>1.000073570013046</v>
+        <v>1.00000793337822</v>
       </c>
       <c r="I176">
-        <v>1.000031012296677</v>
+        <v>1.000040705998739</v>
       </c>
       <c r="J176">
-        <v>0.9999481108594825</v>
+        <v>1.0000001854182</v>
       </c>
       <c r="L176">
-        <v>63.46109989118877</v>
+        <v>53.31736878784424</v>
       </c>
       <c r="M176">
-        <v>59.16009901226956</v>
+        <v>51.38464995138612</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6950,37 +6950,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>1.000390648841858</v>
+        <v>1.000061392784119</v>
       </c>
       <c r="C177">
-        <v>1.00067150592804</v>
+        <v>1.000220775604248</v>
       </c>
       <c r="D177">
-        <v>1.000169515609741</v>
+        <v>0.999963104724884</v>
       </c>
       <c r="E177">
-        <v>1.00019121170044</v>
+        <v>1.000160694122314</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>2192960</v>
       </c>
       <c r="G177">
-        <v>1.000136476452019</v>
+        <v>1.00001788066072</v>
       </c>
       <c r="H177">
-        <v>1.000092786550522</v>
+        <v>1.000017163157463</v>
       </c>
       <c r="I177">
-        <v>1.000033968687057</v>
+        <v>1.000041290124257</v>
       </c>
       <c r="J177">
-        <v>0.9999513307381708</v>
+        <v>1.000002311361301</v>
       </c>
       <c r="L177">
-        <v>51.73392828762201</v>
+        <v>57.19370893158096</v>
       </c>
       <c r="M177">
-        <v>52.61020624669275</v>
+        <v>54.24744407983444</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -6988,37 +6988,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>1.000208973884582</v>
+        <v>1.000194191932678</v>
       </c>
       <c r="C178">
-        <v>1.000508785247803</v>
+        <v>1.000324964523315</v>
       </c>
       <c r="D178">
-        <v>1.000102519989014</v>
+        <v>0.9997974634170532</v>
       </c>
       <c r="E178">
-        <v>1.000252723693848</v>
+        <v>1.00007951259613</v>
       </c>
       <c r="F178">
-        <v>68444944</v>
+        <v>676072</v>
       </c>
       <c r="G178">
-        <v>1.000147044383094</v>
+        <v>1.000023483563939</v>
       </c>
       <c r="H178">
-        <v>1.000115662813187</v>
+        <v>1.000014474987984</v>
       </c>
       <c r="I178">
-        <v>1.000043753782908</v>
+        <v>1.000040932496389</v>
       </c>
       <c r="J178">
-        <v>0.9999553226978486</v>
+        <v>1.000003333894212</v>
       </c>
       <c r="L178">
-        <v>54.83193694959611</v>
+        <v>53.08997783310618</v>
       </c>
       <c r="M178">
-        <v>54.40382980679311</v>
+        <v>51.54276126434186</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7026,37 +7026,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>1.000275015830994</v>
+        <v>1.000084638595581</v>
       </c>
       <c r="C179">
-        <v>1.000430703163147</v>
+        <v>1.000160455703735</v>
       </c>
       <c r="D179">
-        <v>0.9999247789382936</v>
+        <v>0.9996924996376038</v>
       </c>
       <c r="E179">
-        <v>1.000034689903259</v>
+        <v>1.000151515007019</v>
       </c>
       <c r="F179">
-        <v>9948640</v>
+        <v>2919688</v>
       </c>
       <c r="G179">
-        <v>1.000136830339473</v>
+        <v>1.000035122786037</v>
       </c>
       <c r="H179">
-        <v>1.000120627880096</v>
+        <v>1.000014886260033</v>
       </c>
       <c r="I179">
-        <v>1.00004229148229</v>
+        <v>1.000036744276682</v>
       </c>
       <c r="J179">
-        <v>0.9999563739191123</v>
+        <v>1.000005296557958</v>
       </c>
       <c r="L179">
-        <v>43.65769639291746</v>
+        <v>56.22404710980007</v>
       </c>
       <c r="M179">
-        <v>47.53602378307929</v>
+        <v>53.74551245530211</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7064,37 +7064,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>1.000043511390686</v>
+        <v>1.000089645385742</v>
       </c>
       <c r="C180">
-        <v>1.000238180160522</v>
+        <v>1.000160098075867</v>
       </c>
       <c r="D180">
-        <v>0.9999442100524902</v>
+        <v>0.9998385906219482</v>
       </c>
       <c r="E180">
-        <v>1.000187873840332</v>
+        <v>0.9998385906219482</v>
       </c>
       <c r="F180">
-        <v>1496800</v>
+        <v>6008880</v>
       </c>
       <c r="G180">
-        <v>1.000141470657733</v>
+        <v>1.000017256225665</v>
       </c>
       <c r="H180">
-        <v>1.000135362148285</v>
+        <v>1.000005486607552</v>
       </c>
       <c r="I180">
-        <v>1.000049434105555</v>
+        <v>1.000027767817179</v>
       </c>
       <c r="J180">
-        <v>0.9999594401432345</v>
+        <v>1.000003088532316</v>
       </c>
       <c r="L180">
-        <v>51.47399142947857</v>
+        <v>42.38034289240264</v>
       </c>
       <c r="M180">
-        <v>52.11013062868293</v>
+        <v>44.31680292620791</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7102,37 +7102,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>1.000177145004272</v>
+        <v>0.999805212020874</v>
       </c>
       <c r="C181">
-        <v>1.000296831130981</v>
+        <v>1.000082492828369</v>
       </c>
       <c r="D181">
-        <v>1.000003814697266</v>
+        <v>0.9996210932731628</v>
       </c>
       <c r="E181">
-        <v>1.000174522399902</v>
+        <v>0.9998522996902466</v>
       </c>
       <c r="F181">
-        <v>2445392</v>
+        <v>11305904</v>
       </c>
       <c r="G181">
-        <v>1.000144475361566</v>
+        <v>1.000002260176991</v>
       </c>
       <c r="H181">
-        <v>1.000155079364777</v>
+        <v>0.9999988913536072</v>
       </c>
       <c r="I181">
-        <v>1.000054357449214</v>
+        <v>1.000020611286163</v>
       </c>
       <c r="J181">
-        <v>0.9999622889148461</v>
+        <v>1.00000109132911</v>
       </c>
       <c r="L181">
-        <v>50.78318919584372</v>
+        <v>43.07119223972754</v>
       </c>
       <c r="M181">
-        <v>51.68714344185457</v>
+        <v>44.77389916313957</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7140,37 +7140,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>1.000165462493896</v>
+        <v>0.9998741149902344</v>
       </c>
       <c r="C182">
-        <v>1.000221252441406</v>
+        <v>0.9999960064888</v>
       </c>
       <c r="D182">
-        <v>0.9999818801879884</v>
+        <v>0.9997925758361816</v>
       </c>
       <c r="E182">
-        <v>1.000126719474792</v>
+        <v>0.9999960064888</v>
       </c>
       <c r="F182">
-        <v>1897120</v>
+        <v>548608</v>
       </c>
       <c r="G182">
-        <v>1.000142861190041</v>
+        <v>1.000001691659883</v>
       </c>
       <c r="H182">
-        <v>1.000162819027901</v>
+        <v>0.9999965935945511</v>
       </c>
       <c r="I182">
-        <v>1.000057417154312</v>
+        <v>1.000018002589544</v>
       </c>
       <c r="J182">
-        <v>0.9999644668030573</v>
+        <v>1.000001023980231</v>
       </c>
       <c r="L182">
-        <v>48.17882928067613</v>
+        <v>50.12348993361548</v>
       </c>
       <c r="M182">
-        <v>50.11853533907239</v>
+        <v>49.45764198877988</v>
       </c>
     </row>
   </sheetData>
